--- a/src/resources/static/assets/uploads/equipos.xlsx
+++ b/src/resources/static/assets/uploads/equipos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ebeitia/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertasaldana/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{081CEA92-3BA9-D54D-B53B-1D97646A6390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8190F3C1-B0C8-A04B-B0A2-001C51A667F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -730,7 +730,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -746,6 +746,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,7 +783,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -786,11 +792,26 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1124,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P298"/>
+  <dimension ref="A1:Q298"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:P9"/>
+    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J290" sqref="J290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1137,9 +1158,10 @@
     <col min="4" max="4" width="27.1640625" customWidth="1"/>
     <col min="5" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
+    <col min="17" max="17" width="13.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1181,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1225,7 +1247,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1275,7 +1297,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1324,8 +1346,12 @@
       <c r="P4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="8">
+        <f>SUM(E4:P4)</f>
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1374,8 +1400,12 @@
       <c r="P5" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="8">
+        <f t="shared" ref="Q5:Q68" si="0">SUM(E5:P5)</f>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1424,8 +1454,12 @@
       <c r="P6" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="8">
+        <f t="shared" si="0"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1474,8 +1508,12 @@
       <c r="P7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="8">
+        <f t="shared" si="0"/>
+        <v>569.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1524,58 +1562,66 @@
       <c r="P8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="Q8" s="8">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9">
+      <c r="E9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" s="9">
         <v>3</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="9">
         <v>11</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="9">
         <v>2</v>
       </c>
-      <c r="O9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="11">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1624,8 +1670,12 @@
       <c r="P10" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="8">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1674,8 +1724,12 @@
       <c r="P11" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="8">
+        <f t="shared" si="0"/>
+        <v>568.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1724,8 +1778,12 @@
       <c r="P12" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="8">
+        <f t="shared" si="0"/>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1774,8 +1832,12 @@
       <c r="P13" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="8">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1824,58 +1886,66 @@
       <c r="P14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="Q14" s="8">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15">
+      <c r="E15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="9">
         <v>39</v>
       </c>
-      <c r="K15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1924,8 +1994,12 @@
       <c r="P16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="8">
+        <f t="shared" si="0"/>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1974,8 +2048,12 @@
       <c r="P17">
         <v>83</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="8">
+        <f t="shared" si="0"/>
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2024,8 +2102,12 @@
       <c r="P18" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="8">
+        <f t="shared" si="0"/>
+        <v>368.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2074,58 +2156,66 @@
       <c r="P19" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="Q19" s="8">
+        <f t="shared" si="0"/>
+        <v>584.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20">
+      <c r="E20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" s="9">
+        <v>0</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9">
         <v>13</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="9">
         <v>9</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="11">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2174,8 +2264,12 @@
       <c r="P21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="8">
+        <f t="shared" si="0"/>
+        <v>858.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2224,8 +2318,12 @@
       <c r="P22">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="8">
+        <f t="shared" si="0"/>
+        <v>171.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2274,8 +2372,12 @@
       <c r="P23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="8">
+        <f t="shared" si="0"/>
+        <v>783.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2324,8 +2426,12 @@
       <c r="P24" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="8">
+        <f t="shared" si="0"/>
+        <v>27.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -2374,8 +2480,12 @@
       <c r="P25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="8">
+        <f t="shared" si="0"/>
+        <v>887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2424,58 +2534,66 @@
       <c r="P26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="Q26" s="8">
+        <f t="shared" si="0"/>
+        <v>865</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27">
+      <c r="E27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="9">
         <v>33</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="11">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -2524,8 +2642,12 @@
       <c r="P28" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="8">
+        <f t="shared" si="0"/>
+        <v>681.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -2574,8 +2696,12 @@
       <c r="P29">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="8">
+        <f t="shared" si="0"/>
+        <v>233.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -2624,8 +2750,12 @@
       <c r="P30">
         <v>30.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="8">
+        <f t="shared" si="0"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -2674,8 +2804,12 @@
       <c r="P31" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="8">
+        <f t="shared" si="0"/>
+        <v>595.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>41</v>
       </c>
@@ -2724,8 +2858,12 @@
       <c r="P32" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="8">
+        <f t="shared" si="0"/>
+        <v>192.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>41</v>
       </c>
@@ -2774,8 +2912,12 @@
       <c r="P33" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="8">
+        <f t="shared" si="0"/>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>41</v>
       </c>
@@ -2824,8 +2966,12 @@
       <c r="P34" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="8">
+        <f t="shared" si="0"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>41</v>
       </c>
@@ -2874,108 +3020,120 @@
       <c r="P35" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="Q35" s="8">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="9">
         <v>14</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36">
+      <c r="F36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" s="9">
         <v>24</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="L36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="9">
         <v>14</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37">
+      <c r="F37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" s="9">
         <v>24</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P37" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="11">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -3024,8 +3182,12 @@
       <c r="P38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="8">
+        <f t="shared" si="0"/>
+        <v>1986.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>49</v>
       </c>
@@ -3074,108 +3236,120 @@
       <c r="P39" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="Q39" s="8">
+        <f t="shared" si="0"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40">
+      <c r="E40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="9">
         <v>20</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40">
-        <v>0</v>
-      </c>
-      <c r="P40" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="J40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40" s="9">
+        <v>0</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41">
+      <c r="E41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" s="9">
         <v>24</v>
       </c>
-      <c r="H41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P41" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41" s="9">
+        <v>0</v>
+      </c>
+      <c r="N41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" s="11">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>49</v>
       </c>
@@ -3224,8 +3398,12 @@
       <c r="P42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="8">
+        <f t="shared" si="0"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>49</v>
       </c>
@@ -3274,8 +3452,12 @@
       <c r="P43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="8">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -3324,8 +3506,12 @@
       <c r="P44" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="8">
+        <f t="shared" si="0"/>
+        <v>299</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>49</v>
       </c>
@@ -3374,8 +3560,12 @@
       <c r="P45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="8">
+        <f t="shared" si="0"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>49</v>
       </c>
@@ -3424,58 +3614,66 @@
       <c r="P46" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+      <c r="Q46" s="8">
+        <f t="shared" si="0"/>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47">
+      <c r="E47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47" s="9">
         <v>12</v>
       </c>
-      <c r="N47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P47" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>49</v>
       </c>
@@ -3524,8 +3722,12 @@
       <c r="P48" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="8">
+        <f t="shared" si="0"/>
+        <v>596.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -3574,8 +3776,12 @@
       <c r="P49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="8">
+        <f t="shared" si="0"/>
+        <v>231.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -3624,58 +3830,66 @@
       <c r="P50" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+      <c r="Q50" s="8">
+        <f t="shared" si="0"/>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="9">
         <v>10.5</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="9">
         <v>2.5</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51">
+      <c r="G51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="9">
         <v>14.25</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="9">
         <v>3.5</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="9">
         <v>1</v>
       </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N51">
-        <v>0</v>
-      </c>
-      <c r="O51">
-        <v>0</v>
-      </c>
-      <c r="P51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="K51" s="9">
+        <v>0</v>
+      </c>
+      <c r="L51" s="9">
+        <v>0</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51" s="9">
+        <v>0</v>
+      </c>
+      <c r="O51" s="9">
+        <v>0</v>
+      </c>
+      <c r="P51" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="11">
+        <f t="shared" si="0"/>
+        <v>31.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -3724,108 +3938,120 @@
       <c r="P52" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+      <c r="Q52" s="8">
+        <f t="shared" si="0"/>
+        <v>74.75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53">
+      <c r="E53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53" s="9">
         <v>1</v>
       </c>
-      <c r="G53">
+      <c r="G53" s="9">
         <v>1.75</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53">
+      <c r="H53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="9">
         <v>8.25</v>
       </c>
-      <c r="J53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+      <c r="J53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53" s="9">
+        <v>0</v>
+      </c>
+      <c r="M53" s="9">
+        <v>0</v>
+      </c>
+      <c r="N53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O53" s="9">
+        <v>0</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q53" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54">
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
+      <c r="F54" s="9">
+        <v>0</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54" s="9">
         <v>2</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="9">
         <v>1</v>
       </c>
-      <c r="M54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P54" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="M54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" s="11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -3874,8 +4100,12 @@
       <c r="P55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="8">
+        <f t="shared" si="0"/>
+        <v>2290.25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -3924,8 +4154,12 @@
       <c r="P56" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="8">
+        <f t="shared" si="0"/>
+        <v>352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -3974,8 +4208,12 @@
       <c r="P57" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="8">
+        <f t="shared" si="0"/>
+        <v>310.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -4024,8 +4262,12 @@
       <c r="P58">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="8">
+        <f t="shared" si="0"/>
+        <v>391.5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -4074,8 +4316,12 @@
       <c r="P59" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="8">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -4124,8 +4370,12 @@
       <c r="P60" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="8">
+        <f t="shared" si="0"/>
+        <v>373.25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -4174,8 +4424,12 @@
       <c r="P61" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="8">
+        <f t="shared" si="0"/>
+        <v>380.25</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -4224,8 +4478,12 @@
       <c r="P62" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="8">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -4274,8 +4532,12 @@
       <c r="P63" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="8">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -4324,8 +4586,12 @@
       <c r="P64" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="8">
+        <f t="shared" si="0"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -4374,8 +4640,12 @@
       <c r="P65" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="8">
+        <f t="shared" si="0"/>
+        <v>65.75</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -4424,8 +4694,12 @@
       <c r="P66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="8">
+        <f t="shared" si="0"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -4474,8 +4748,12 @@
       <c r="P67" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="8">
+        <f t="shared" si="0"/>
+        <v>50.5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -4524,58 +4802,66 @@
       <c r="P68">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="Q68" s="8">
+        <f t="shared" si="0"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69">
+      <c r="E69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69" s="9">
         <v>7.5</v>
       </c>
-      <c r="J69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N69" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O69" s="9">
+        <v>0</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q69" s="11">
+        <f t="shared" ref="Q69:Q132" si="1">SUM(E69:P69)</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>49</v>
       </c>
@@ -4624,8 +4910,12 @@
       <c r="P70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="8">
+        <f t="shared" si="1"/>
+        <v>265</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>49</v>
       </c>
@@ -4674,8 +4964,12 @@
       <c r="P71">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="8">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>221</v>
       </c>
@@ -4724,8 +5018,12 @@
       <c r="P72">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="8">
+        <f t="shared" si="1"/>
+        <v>2184</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>221</v>
       </c>
@@ -4774,8 +5072,12 @@
       <c r="P73" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="8">
+        <f t="shared" si="1"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>221</v>
       </c>
@@ -4824,8 +5126,12 @@
       <c r="P74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="8">
+        <f t="shared" si="1"/>
+        <v>866</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>221</v>
       </c>
@@ -4874,8 +5180,12 @@
       <c r="P75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="8">
+        <f t="shared" si="1"/>
+        <v>886</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>221</v>
       </c>
@@ -4924,108 +5234,120 @@
       <c r="P76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="Q76" s="8">
+        <f t="shared" si="1"/>
+        <v>658.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77">
+      <c r="E77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="9">
         <v>6.5</v>
       </c>
-      <c r="K77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+      <c r="K77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O77" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P77" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78">
-        <v>0</v>
-      </c>
-      <c r="J78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N78" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O78">
+      <c r="E78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" s="9">
+        <v>0</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O78" s="9">
         <v>13</v>
       </c>
-      <c r="P78" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P78" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q78" s="11">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>221</v>
       </c>
@@ -5074,8 +5396,12 @@
       <c r="P79" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q79" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>221</v>
       </c>
@@ -5124,58 +5450,66 @@
       <c r="P80">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+      <c r="Q80" s="8">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81">
+      <c r="E81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" s="9">
         <v>4</v>
       </c>
-      <c r="J81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O81">
+      <c r="J81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O81" s="9">
         <v>8</v>
       </c>
-      <c r="P81" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q81" s="11">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>221</v>
       </c>
@@ -5224,58 +5558,66 @@
       <c r="P82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+      <c r="Q82" s="8">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I83">
+      <c r="E83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" s="9">
         <v>24</v>
       </c>
-      <c r="J83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N83" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O83">
-        <v>0</v>
-      </c>
-      <c r="P83" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O83" s="9">
+        <v>0</v>
+      </c>
+      <c r="P83" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q83" s="11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>221</v>
       </c>
@@ -5324,58 +5666,66 @@
       <c r="P84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+      <c r="Q84" s="8">
+        <f t="shared" si="1"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
-      <c r="J85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O85">
+      <c r="E85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" s="9">
+        <v>0</v>
+      </c>
+      <c r="J85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O85" s="9">
         <v>26</v>
       </c>
-      <c r="P85" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q85" s="11">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>221</v>
       </c>
@@ -5424,58 +5774,66 @@
       <c r="P86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="Q86" s="8">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I87">
+      <c r="E87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" s="9">
         <v>8</v>
       </c>
-      <c r="J87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N87" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O87">
-        <v>0</v>
-      </c>
-      <c r="P87" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O87" s="9">
+        <v>0</v>
+      </c>
+      <c r="P87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q87" s="11">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>221</v>
       </c>
@@ -5524,8 +5882,12 @@
       <c r="P88" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="8">
+        <f t="shared" si="1"/>
+        <v>524.5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>221</v>
       </c>
@@ -5574,8 +5936,12 @@
       <c r="P89" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="8">
+        <f t="shared" si="1"/>
+        <v>49.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>221</v>
       </c>
@@ -5624,8 +5990,12 @@
       <c r="P90" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="8">
+        <f t="shared" si="1"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>221</v>
       </c>
@@ -5674,8 +6044,12 @@
       <c r="P91" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="8">
+        <f t="shared" si="1"/>
+        <v>66.5</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>221</v>
       </c>
@@ -5724,8 +6098,12 @@
       <c r="P92" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="8">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>221</v>
       </c>
@@ -5774,8 +6152,12 @@
       <c r="P93" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="8">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>221</v>
       </c>
@@ -5824,8 +6206,12 @@
       <c r="P94" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="8">
+        <f t="shared" si="1"/>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>221</v>
       </c>
@@ -5874,8 +6260,12 @@
       <c r="P95" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="8">
+        <f t="shared" si="1"/>
+        <v>806</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>85</v>
       </c>
@@ -5924,8 +6314,12 @@
       <c r="P96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="8">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>85</v>
       </c>
@@ -5974,8 +6368,12 @@
       <c r="P97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="8">
+        <f t="shared" si="1"/>
+        <v>224</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>87</v>
       </c>
@@ -6024,8 +6422,12 @@
       <c r="P98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="8">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>87</v>
       </c>
@@ -6074,108 +6476,120 @@
       <c r="P99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+      <c r="Q99" s="8">
+        <f t="shared" si="1"/>
+        <v>265.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I100">
+      <c r="E100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" s="9">
         <v>6</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N100" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O100">
-        <v>0</v>
-      </c>
-      <c r="P100" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="J100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O100" s="9">
+        <v>0</v>
+      </c>
+      <c r="P100" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q100" s="11">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I101">
+      <c r="E101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" s="9">
         <v>10</v>
       </c>
-      <c r="J101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N101" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O101">
-        <v>0</v>
-      </c>
-      <c r="P101" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="J101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101" s="9">
+        <v>0</v>
+      </c>
+      <c r="P101" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q101" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>87</v>
       </c>
@@ -6224,8 +6638,12 @@
       <c r="P102" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q102" s="8">
+        <f t="shared" si="1"/>
+        <v>97.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>91</v>
       </c>
@@ -6274,58 +6692,66 @@
       <c r="P103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
+      <c r="Q103" s="8">
+        <f t="shared" si="1"/>
+        <v>3495.25</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E104">
+      <c r="E104" s="9">
         <v>11</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="9">
         <v>6.5</v>
       </c>
-      <c r="G104">
+      <c r="G104" s="9">
         <v>4</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K104">
+      <c r="H104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104" s="9">
         <v>5</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="9">
         <v>1</v>
       </c>
-      <c r="M104">
+      <c r="M104" s="9">
         <v>1.5</v>
       </c>
-      <c r="N104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O104" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P104" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P104" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q104" s="11">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>91</v>
       </c>
@@ -6374,8 +6800,12 @@
       <c r="P105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q105" s="8">
+        <f t="shared" si="1"/>
+        <v>889</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>91</v>
       </c>
@@ -6424,8 +6854,12 @@
       <c r="P106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q106" s="8">
+        <f t="shared" si="1"/>
+        <v>867.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>91</v>
       </c>
@@ -6474,8 +6908,12 @@
       <c r="P107" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q107" s="8">
+        <f t="shared" si="1"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>91</v>
       </c>
@@ -6524,8 +6962,12 @@
       <c r="P108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q108" s="8">
+        <f t="shared" si="1"/>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>91</v>
       </c>
@@ -6574,58 +7016,66 @@
       <c r="P109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+      <c r="Q109" s="8">
+        <f t="shared" si="1"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="E110">
+      <c r="E110" s="9">
         <v>34</v>
       </c>
-      <c r="F110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110">
+      <c r="F110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110" s="9">
         <v>4</v>
       </c>
-      <c r="L110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O110" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P110" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="L110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P110" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q110" s="11">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>222</v>
       </c>
@@ -6674,8 +7124,12 @@
       <c r="P111" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q111" s="8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>222</v>
       </c>
@@ -6724,58 +7178,66 @@
       <c r="P112" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="Q112" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113">
+      <c r="E113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113" s="9">
         <v>10</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M113">
-        <v>0</v>
-      </c>
-      <c r="N113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O113" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P113" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113" s="9">
+        <v>0</v>
+      </c>
+      <c r="N113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P113" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q113" s="11">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>222</v>
       </c>
@@ -6824,8 +7286,12 @@
       <c r="P114" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q114" s="8">
+        <f t="shared" si="1"/>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>222</v>
       </c>
@@ -6874,158 +7340,174 @@
       <c r="P115" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+      <c r="Q115" s="8">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116">
+      <c r="E116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116" s="9">
         <v>24</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M116">
-        <v>0</v>
-      </c>
-      <c r="N116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O116" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P116" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+      <c r="H116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116" s="9">
+        <v>0</v>
+      </c>
+      <c r="N116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P116" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q116" s="11">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117">
+      <c r="E117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117" s="9">
         <v>16</v>
       </c>
-      <c r="H117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M117">
-        <v>0</v>
-      </c>
-      <c r="N117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O117" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P117" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="H117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P117" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q117" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118">
+      <c r="E118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118" s="9">
         <v>16</v>
       </c>
-      <c r="H118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M118">
-        <v>0</v>
-      </c>
-      <c r="N118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O118" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P118" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="H118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M118" s="9">
+        <v>0</v>
+      </c>
+      <c r="N118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P118" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q118" s="11">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>222</v>
       </c>
@@ -7074,8 +7556,12 @@
       <c r="P119" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q119" s="8">
+        <f t="shared" si="1"/>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>222</v>
       </c>
@@ -7124,8 +7610,12 @@
       <c r="P120" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q120" s="8">
+        <f t="shared" si="1"/>
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>222</v>
       </c>
@@ -7174,8 +7664,12 @@
       <c r="P121" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q121" s="8">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>222</v>
       </c>
@@ -7224,8 +7718,12 @@
       <c r="P122" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q122" s="8">
+        <f t="shared" si="1"/>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>222</v>
       </c>
@@ -7274,8 +7772,12 @@
       <c r="P123">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q123" s="8">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>222</v>
       </c>
@@ -7324,8 +7826,12 @@
       <c r="P124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q124" s="8">
+        <f t="shared" si="1"/>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>222</v>
       </c>
@@ -7374,8 +7880,12 @@
       <c r="P125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q125" s="8">
+        <f t="shared" si="1"/>
+        <v>1296.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>222</v>
       </c>
@@ -7424,8 +7934,12 @@
       <c r="P126" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q126" s="8">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>222</v>
       </c>
@@ -7474,8 +7988,12 @@
       <c r="P127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q127" s="8">
+        <f t="shared" si="1"/>
+        <v>417.5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>222</v>
       </c>
@@ -7524,8 +8042,12 @@
       <c r="P128" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q128" s="8">
+        <f t="shared" si="1"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>222</v>
       </c>
@@ -7574,8 +8096,12 @@
       <c r="P129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q129" s="8">
+        <f t="shared" si="1"/>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>222</v>
       </c>
@@ -7624,8 +8150,12 @@
       <c r="P130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q130" s="8">
+        <f t="shared" si="1"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>222</v>
       </c>
@@ -7674,8 +8204,12 @@
       <c r="P131">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q131" s="8">
+        <f t="shared" si="1"/>
+        <v>594</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>222</v>
       </c>
@@ -7724,8 +8258,12 @@
       <c r="P132" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q132" s="8">
+        <f t="shared" si="1"/>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>222</v>
       </c>
@@ -7774,8 +8312,12 @@
       <c r="P133" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q133" s="8">
+        <f t="shared" ref="Q133:Q196" si="2">SUM(E133:P133)</f>
+        <v>101.5</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>222</v>
       </c>
@@ -7824,8 +8366,12 @@
       <c r="P134">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q134" s="8">
+        <f t="shared" si="2"/>
+        <v>603.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>222</v>
       </c>
@@ -7874,8 +8420,12 @@
       <c r="P135" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q135" s="8">
+        <f t="shared" si="2"/>
+        <v>46.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>222</v>
       </c>
@@ -7924,8 +8474,12 @@
       <c r="P136" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q136" s="8">
+        <f t="shared" si="2"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>112</v>
       </c>
@@ -7974,8 +8528,12 @@
       <c r="P137">
         <v>18</v>
       </c>
-    </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q137" s="8">
+        <f t="shared" si="2"/>
+        <v>1380.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>112</v>
       </c>
@@ -8024,8 +8582,12 @@
       <c r="P138">
         <v>18</v>
       </c>
-    </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q138" s="8">
+        <f t="shared" si="2"/>
+        <v>658</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>112</v>
       </c>
@@ -8074,8 +8636,12 @@
       <c r="P139" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q139" s="8">
+        <f t="shared" si="2"/>
+        <v>722.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>112</v>
       </c>
@@ -8124,8 +8690,12 @@
       <c r="P140">
         <v>114.5</v>
       </c>
-    </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q140" s="8">
+        <f t="shared" si="2"/>
+        <v>1991.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>112</v>
       </c>
@@ -8174,8 +8744,12 @@
       <c r="P141">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q141" s="8">
+        <f t="shared" si="2"/>
+        <v>646.5</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>112</v>
       </c>
@@ -8224,8 +8798,12 @@
       <c r="P142">
         <v>37</v>
       </c>
-    </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q142" s="8">
+        <f t="shared" si="2"/>
+        <v>530</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>112</v>
       </c>
@@ -8274,8 +8852,12 @@
       <c r="P143">
         <v>56</v>
       </c>
-    </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q143" s="8">
+        <f t="shared" si="2"/>
+        <v>815</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>112</v>
       </c>
@@ -8324,8 +8906,12 @@
       <c r="P144">
         <v>222.5</v>
       </c>
-    </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q144" s="8">
+        <f t="shared" si="2"/>
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>112</v>
       </c>
@@ -8374,58 +8960,66 @@
       <c r="P145" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
+      <c r="Q145" s="8">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D146" t="s">
+      <c r="D146" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="E146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I146">
-        <v>0</v>
-      </c>
-      <c r="J146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N146" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O146">
+      <c r="E146" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146" s="9">
+        <v>0</v>
+      </c>
+      <c r="J146" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L146" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M146" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N146" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O146" s="9">
         <v>31</v>
       </c>
-      <c r="P146" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="P146" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q146" s="11">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>112</v>
       </c>
@@ -8474,8 +9068,12 @@
       <c r="P147">
         <v>18</v>
       </c>
-    </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q147" s="8">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>112</v>
       </c>
@@ -8524,8 +9122,12 @@
       <c r="P148">
         <v>64</v>
       </c>
-    </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q148" s="8">
+        <f t="shared" si="2"/>
+        <v>461</v>
+      </c>
+    </row>
+    <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>112</v>
       </c>
@@ -8574,8 +9176,12 @@
       <c r="P149" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q149" s="8">
+        <f t="shared" si="2"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>112</v>
       </c>
@@ -8624,58 +9230,66 @@
       <c r="P150">
         <v>45</v>
       </c>
-    </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+      <c r="Q150" s="8">
+        <f t="shared" si="2"/>
+        <v>578.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C151" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D151" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E151">
-        <v>0</v>
-      </c>
-      <c r="F151">
-        <v>0</v>
-      </c>
-      <c r="G151">
-        <v>0</v>
-      </c>
-      <c r="H151" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I151" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K151">
+      <c r="E151" s="9">
+        <v>0</v>
+      </c>
+      <c r="F151" s="9">
+        <v>0</v>
+      </c>
+      <c r="G151" s="9">
+        <v>0</v>
+      </c>
+      <c r="H151" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151" s="9">
         <v>8</v>
       </c>
-      <c r="L151">
+      <c r="L151" s="9">
         <v>5.75</v>
       </c>
-      <c r="M151">
+      <c r="M151" s="9">
         <v>4.25</v>
       </c>
-      <c r="N151" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O151" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P151" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="N151" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="O151" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P151" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q151" s="11">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>112</v>
       </c>
@@ -8724,8 +9338,12 @@
       <c r="P152" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q152" s="8">
+        <f t="shared" si="2"/>
+        <v>60.25</v>
+      </c>
+    </row>
+    <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>112</v>
       </c>
@@ -8774,8 +9392,12 @@
       <c r="P153" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q153" s="8">
+        <f t="shared" si="2"/>
+        <v>124</v>
+      </c>
+    </row>
+    <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>112</v>
       </c>
@@ -8824,8 +9446,12 @@
       <c r="P154">
         <v>41</v>
       </c>
-    </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q154" s="8">
+        <f t="shared" si="2"/>
+        <v>427.75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>112</v>
       </c>
@@ -8874,8 +9500,12 @@
       <c r="P155">
         <v>10</v>
       </c>
-    </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q155" s="8">
+        <f t="shared" si="2"/>
+        <v>396.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>112</v>
       </c>
@@ -8924,8 +9554,12 @@
       <c r="P156" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q156" s="8">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>112</v>
       </c>
@@ -8974,8 +9608,12 @@
       <c r="P157" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q157" s="8">
+        <f t="shared" si="2"/>
+        <v>123.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>112</v>
       </c>
@@ -9024,8 +9662,12 @@
       <c r="P158" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q158" s="8">
+        <f t="shared" si="2"/>
+        <v>406.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>112</v>
       </c>
@@ -9074,8 +9716,12 @@
       <c r="P159">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q159" s="8">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>112</v>
       </c>
@@ -9124,8 +9770,12 @@
       <c r="P160">
         <v>129</v>
       </c>
-    </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q160" s="8">
+        <f t="shared" si="2"/>
+        <v>2097.75</v>
+      </c>
+    </row>
+    <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>112</v>
       </c>
@@ -9174,8 +9824,12 @@
       <c r="P161" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q161" s="8">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>112</v>
       </c>
@@ -9224,8 +9878,12 @@
       <c r="P162">
         <v>32</v>
       </c>
-    </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q162" s="8">
+        <f t="shared" si="2"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>112</v>
       </c>
@@ -9274,8 +9932,12 @@
       <c r="P163">
         <v>3</v>
       </c>
-    </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q163" s="8">
+        <f t="shared" si="2"/>
+        <v>65.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>112</v>
       </c>
@@ -9324,8 +9986,12 @@
       <c r="P164">
         <v>24</v>
       </c>
-    </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q164" s="8">
+        <f t="shared" si="2"/>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>112</v>
       </c>
@@ -9374,8 +10040,12 @@
       <c r="P165" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q165" s="8">
+        <f t="shared" si="2"/>
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>112</v>
       </c>
@@ -9424,8 +10094,12 @@
       <c r="P166">
         <v>4</v>
       </c>
-    </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q166" s="8">
+        <f t="shared" si="2"/>
+        <v>117.75</v>
+      </c>
+    </row>
+    <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>112</v>
       </c>
@@ -9474,8 +10148,12 @@
       <c r="P167">
         <v>10</v>
       </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q167" s="8">
+        <f t="shared" si="2"/>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>112</v>
       </c>
@@ -9524,8 +10202,12 @@
       <c r="P168" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q168" s="8">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>112</v>
       </c>
@@ -9574,8 +10256,12 @@
       <c r="P169" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q169" s="8">
+        <f t="shared" si="2"/>
+        <v>82.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>112</v>
       </c>
@@ -9624,8 +10310,12 @@
       <c r="P170">
         <v>56</v>
       </c>
-    </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q170" s="8">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>112</v>
       </c>
@@ -9674,8 +10364,12 @@
       <c r="P171">
         <v>76.289999999999992</v>
       </c>
-    </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q171" s="8">
+        <f t="shared" si="2"/>
+        <v>702.03</v>
+      </c>
+    </row>
+    <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>112</v>
       </c>
@@ -9724,8 +10418,12 @@
       <c r="P172">
         <v>1</v>
       </c>
-    </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q172" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>112</v>
       </c>
@@ -9774,8 +10472,12 @@
       <c r="P173">
         <v>26</v>
       </c>
-    </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q173" s="8">
+        <f t="shared" si="2"/>
+        <v>195.75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>112</v>
       </c>
@@ -9824,8 +10526,12 @@
       <c r="P174" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q174" s="8">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>112</v>
       </c>
@@ -9874,8 +10580,12 @@
       <c r="P175">
         <v>49.29</v>
       </c>
-    </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q175" s="8">
+        <f t="shared" si="2"/>
+        <v>486.28000000000003</v>
+      </c>
+    </row>
+    <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>112</v>
       </c>
@@ -9924,8 +10634,12 @@
       <c r="P176" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q176" s="8">
+        <f t="shared" si="2"/>
+        <v>97.75</v>
+      </c>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>112</v>
       </c>
@@ -9974,8 +10688,12 @@
       <c r="P177" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q177" s="8">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>112</v>
       </c>
@@ -10024,8 +10742,12 @@
       <c r="P178" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q178" s="8">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>112</v>
       </c>
@@ -10074,8 +10796,12 @@
       <c r="P179" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q179" s="8">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>112</v>
       </c>
@@ -10124,8 +10850,12 @@
       <c r="P180" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q180" s="8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>112</v>
       </c>
@@ -10174,8 +10904,12 @@
       <c r="P181" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q181" s="8">
+        <f t="shared" si="2"/>
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>112</v>
       </c>
@@ -10224,8 +10958,12 @@
       <c r="P182">
         <v>167</v>
       </c>
-    </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q182" s="8">
+        <f t="shared" si="2"/>
+        <v>3205.5</v>
+      </c>
+    </row>
+    <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>112</v>
       </c>
@@ -10274,8 +11012,12 @@
       <c r="P183" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q183" s="8">
+        <f t="shared" si="2"/>
+        <v>740</v>
+      </c>
+    </row>
+    <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>112</v>
       </c>
@@ -10324,8 +11066,12 @@
       <c r="P184">
         <v>64</v>
       </c>
-    </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q184" s="8">
+        <f t="shared" si="2"/>
+        <v>909.5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>112</v>
       </c>
@@ -10374,8 +11120,12 @@
       <c r="P185">
         <v>56</v>
       </c>
-    </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q185" s="8">
+        <f t="shared" si="2"/>
+        <v>730.5</v>
+      </c>
+    </row>
+    <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>112</v>
       </c>
@@ -10424,8 +11174,12 @@
       <c r="P186" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q186" s="8">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>112</v>
       </c>
@@ -10474,8 +11228,12 @@
       <c r="P187">
         <v>47</v>
       </c>
-    </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q187" s="8">
+        <f t="shared" si="2"/>
+        <v>695.5</v>
+      </c>
+    </row>
+    <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>112</v>
       </c>
@@ -10524,8 +11282,12 @@
       <c r="P188" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q188" s="8">
+        <f t="shared" si="2"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>112</v>
       </c>
@@ -10574,8 +11336,12 @@
       <c r="P189" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q189" s="8">
+        <f t="shared" si="2"/>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>112</v>
       </c>
@@ -10624,8 +11390,12 @@
       <c r="P190">
         <v>114.75</v>
       </c>
-    </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q190" s="8">
+        <f t="shared" si="2"/>
+        <v>2972.3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>112</v>
       </c>
@@ -10674,8 +11444,12 @@
       <c r="P191" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q191" s="8">
+        <f t="shared" si="2"/>
+        <v>752</v>
+      </c>
+    </row>
+    <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>112</v>
       </c>
@@ -10724,8 +11498,12 @@
       <c r="P192" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q192" s="8">
+        <f t="shared" si="2"/>
+        <v>811</v>
+      </c>
+    </row>
+    <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>112</v>
       </c>
@@ -10774,8 +11552,12 @@
       <c r="P193">
         <v>62.75</v>
       </c>
-    </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q193" s="8">
+        <f t="shared" si="2"/>
+        <v>861.3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>112</v>
       </c>
@@ -10824,8 +11606,12 @@
       <c r="P194">
         <v>52</v>
       </c>
-    </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q194" s="8">
+        <f t="shared" si="2"/>
+        <v>548</v>
+      </c>
+    </row>
+    <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>112</v>
       </c>
@@ -10874,8 +11660,12 @@
       <c r="P195">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q195" s="8">
+        <f t="shared" si="2"/>
+        <v>108.25</v>
+      </c>
+    </row>
+    <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>112</v>
       </c>
@@ -10924,8 +11714,12 @@
       <c r="P196" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q196" s="8">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>112</v>
       </c>
@@ -10974,8 +11768,12 @@
       <c r="P197">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q197" s="8">
+        <f t="shared" ref="Q197:Q260" si="3">SUM(E197:P197)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>112</v>
       </c>
@@ -11024,8 +11822,12 @@
       <c r="P198">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q198" s="8">
+        <f t="shared" si="3"/>
+        <v>36.75</v>
+      </c>
+    </row>
+    <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>112</v>
       </c>
@@ -11074,8 +11876,12 @@
       <c r="P199" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q199" s="8">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>112</v>
       </c>
@@ -11124,8 +11930,12 @@
       <c r="P200" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q200" s="8">
+        <f t="shared" si="3"/>
+        <v>2473</v>
+      </c>
+    </row>
+    <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>112</v>
       </c>
@@ -11174,8 +11984,12 @@
       <c r="P201" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q201" s="8">
+        <f t="shared" si="3"/>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>112</v>
       </c>
@@ -11224,8 +12038,12 @@
       <c r="P202" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q202" s="8">
+        <f t="shared" si="3"/>
+        <v>621.5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>112</v>
       </c>
@@ -11274,8 +12092,12 @@
       <c r="P203" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q203" s="8">
+        <f t="shared" si="3"/>
+        <v>740.5</v>
+      </c>
+    </row>
+    <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>112</v>
       </c>
@@ -11324,8 +12146,12 @@
       <c r="P204" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q204" s="8">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+    </row>
+    <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>112</v>
       </c>
@@ -11374,8 +12200,12 @@
       <c r="P205">
         <v>32</v>
       </c>
-    </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q205" s="8">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>112</v>
       </c>
@@ -11424,8 +12254,12 @@
       <c r="P206">
         <v>32</v>
       </c>
-    </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q206" s="8">
+        <f t="shared" si="3"/>
+        <v>432</v>
+      </c>
+    </row>
+    <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>112</v>
       </c>
@@ -11474,8 +12308,12 @@
       <c r="P207">
         <v>18</v>
       </c>
-    </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q207" s="8">
+        <f t="shared" si="3"/>
+        <v>329.5</v>
+      </c>
+    </row>
+    <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>112</v>
       </c>
@@ -11524,8 +12362,12 @@
       <c r="P208">
         <v>8</v>
       </c>
-    </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q208" s="8">
+        <f t="shared" si="3"/>
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>112</v>
       </c>
@@ -11574,8 +12416,12 @@
       <c r="P209" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q209" s="8">
+        <f t="shared" si="3"/>
+        <v>116.5</v>
+      </c>
+    </row>
+    <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>112</v>
       </c>
@@ -11624,8 +12470,12 @@
       <c r="P210">
         <v>10</v>
       </c>
-    </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q210" s="8">
+        <f t="shared" si="3"/>
+        <v>159.5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>158</v>
       </c>
@@ -11674,8 +12524,12 @@
       <c r="P211" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q211" s="8">
+        <f t="shared" si="3"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>158</v>
       </c>
@@ -11724,8 +12578,12 @@
       <c r="P212" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q212" s="8">
+        <f t="shared" si="3"/>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>158</v>
       </c>
@@ -11774,8 +12632,12 @@
       <c r="P213" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q213" s="8">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>158</v>
       </c>
@@ -11824,8 +12686,12 @@
       <c r="P214" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q214" s="8">
+        <f t="shared" si="3"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>158</v>
       </c>
@@ -11874,8 +12740,12 @@
       <c r="P215">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q215" s="8">
+        <f t="shared" si="3"/>
+        <v>5983</v>
+      </c>
+    </row>
+    <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>158</v>
       </c>
@@ -11924,8 +12794,12 @@
       <c r="P216">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q216" s="8">
+        <f t="shared" si="3"/>
+        <v>880</v>
+      </c>
+    </row>
+    <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>158</v>
       </c>
@@ -11974,8 +12848,12 @@
       <c r="P217" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q217" s="8">
+        <f t="shared" si="3"/>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>158</v>
       </c>
@@ -12024,8 +12902,12 @@
       <c r="P218">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q218" s="8">
+        <f t="shared" si="3"/>
+        <v>791.5</v>
+      </c>
+    </row>
+    <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>158</v>
       </c>
@@ -12074,8 +12956,12 @@
       <c r="P219">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q219" s="8">
+        <f t="shared" si="3"/>
+        <v>886.5</v>
+      </c>
+    </row>
+    <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>158</v>
       </c>
@@ -12124,8 +13010,12 @@
       <c r="P220">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q220" s="8">
+        <f t="shared" si="3"/>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>158</v>
       </c>
@@ -12174,8 +13064,12 @@
       <c r="P221">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q221" s="8">
+        <f t="shared" si="3"/>
+        <v>896</v>
+      </c>
+    </row>
+    <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>158</v>
       </c>
@@ -12224,8 +13118,12 @@
       <c r="P222">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q222" s="8">
+        <f t="shared" si="3"/>
+        <v>848</v>
+      </c>
+    </row>
+    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>158</v>
       </c>
@@ -12274,8 +13172,12 @@
       <c r="P223">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q223" s="8">
+        <f t="shared" si="3"/>
+        <v>3404.5</v>
+      </c>
+    </row>
+    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>158</v>
       </c>
@@ -12324,8 +13226,12 @@
       <c r="P224" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q224" s="8">
+        <f t="shared" si="3"/>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>158</v>
       </c>
@@ -12374,8 +13280,12 @@
       <c r="P225" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q225" s="8">
+        <f t="shared" si="3"/>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>158</v>
       </c>
@@ -12424,8 +13334,12 @@
       <c r="P226">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q226" s="8">
+        <f t="shared" si="3"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>158</v>
       </c>
@@ -12474,8 +13388,12 @@
       <c r="P227" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q227" s="8">
+        <f t="shared" si="3"/>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>158</v>
       </c>
@@ -12524,8 +13442,12 @@
       <c r="P228" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q228" s="8">
+        <f t="shared" si="3"/>
+        <v>516</v>
+      </c>
+    </row>
+    <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>158</v>
       </c>
@@ -12574,8 +13496,12 @@
       <c r="P229">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q229" s="8">
+        <f t="shared" si="3"/>
+        <v>477.5</v>
+      </c>
+    </row>
+    <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>158</v>
       </c>
@@ -12624,8 +13550,12 @@
       <c r="P230" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q230" s="8">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>158</v>
       </c>
@@ -12674,8 +13604,12 @@
       <c r="P231">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q231" s="8">
+        <f t="shared" si="3"/>
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>158</v>
       </c>
@@ -12724,8 +13658,12 @@
       <c r="P232">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q232" s="8">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+    </row>
+    <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>158</v>
       </c>
@@ -12774,8 +13712,12 @@
       <c r="P233">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q233" s="8">
+        <f t="shared" si="3"/>
+        <v>912</v>
+      </c>
+    </row>
+    <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>158</v>
       </c>
@@ -12824,8 +13766,12 @@
       <c r="P234" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q234" s="8">
+        <f t="shared" si="3"/>
+        <v>649.5</v>
+      </c>
+    </row>
+    <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>158</v>
       </c>
@@ -12874,8 +13820,12 @@
       <c r="P235" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q235" s="8">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>158</v>
       </c>
@@ -12924,8 +13874,12 @@
       <c r="P236" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q236" s="8">
+        <f t="shared" si="3"/>
+        <v>132.75</v>
+      </c>
+    </row>
+    <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>158</v>
       </c>
@@ -12974,8 +13928,12 @@
       <c r="P237" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q237" s="8">
+        <f t="shared" si="3"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>158</v>
       </c>
@@ -13024,8 +13982,12 @@
       <c r="P238" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q238" s="8">
+        <f t="shared" si="3"/>
+        <v>165.5</v>
+      </c>
+    </row>
+    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>158</v>
       </c>
@@ -13074,8 +14036,12 @@
       <c r="P239" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q239" s="8">
+        <f t="shared" si="3"/>
+        <v>254.75</v>
+      </c>
+    </row>
+    <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>158</v>
       </c>
@@ -13124,8 +14090,12 @@
       <c r="P240" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q240" s="8">
+        <f t="shared" si="3"/>
+        <v>386</v>
+      </c>
+    </row>
+    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>158</v>
       </c>
@@ -13174,8 +14144,12 @@
       <c r="P241" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q241" s="8">
+        <f t="shared" si="3"/>
+        <v>229.5</v>
+      </c>
+    </row>
+    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>158</v>
       </c>
@@ -13224,8 +14198,12 @@
       <c r="P242" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q242" s="8">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>158</v>
       </c>
@@ -13274,8 +14252,12 @@
       <c r="P243" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q243" s="8">
+        <f t="shared" si="3"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>158</v>
       </c>
@@ -13324,8 +14306,12 @@
       <c r="P244">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q244" s="8">
+        <f t="shared" si="3"/>
+        <v>3674.5</v>
+      </c>
+    </row>
+    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>158</v>
       </c>
@@ -13374,8 +14360,12 @@
       <c r="P245" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q245" s="8">
+        <f t="shared" si="3"/>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>158</v>
       </c>
@@ -13424,8 +14414,12 @@
       <c r="P246" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q246" s="8">
+        <f t="shared" si="3"/>
+        <v>664</v>
+      </c>
+    </row>
+    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>158</v>
       </c>
@@ -13474,8 +14468,12 @@
       <c r="P247">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q247" s="8">
+        <f t="shared" si="3"/>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>158</v>
       </c>
@@ -13524,8 +14522,12 @@
       <c r="P248" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q248" s="8">
+        <f t="shared" si="3"/>
+        <v>768</v>
+      </c>
+    </row>
+    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>158</v>
       </c>
@@ -13574,8 +14576,12 @@
       <c r="P249" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q249" s="8">
+        <f t="shared" si="3"/>
+        <v>756</v>
+      </c>
+    </row>
+    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>158</v>
       </c>
@@ -13624,8 +14630,12 @@
       <c r="P250" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q250" s="8">
+        <f t="shared" si="3"/>
+        <v>601.5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>158</v>
       </c>
@@ -13674,8 +14684,12 @@
       <c r="P251">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q251" s="8">
+        <f t="shared" si="3"/>
+        <v>656</v>
+      </c>
+    </row>
+    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>158</v>
       </c>
@@ -13724,8 +14738,12 @@
       <c r="P252">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q252" s="8">
+        <f t="shared" si="3"/>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>158</v>
       </c>
@@ -13774,8 +14792,12 @@
       <c r="P253">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q253" s="8">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>158</v>
       </c>
@@ -13824,8 +14846,12 @@
       <c r="P254">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q254" s="8">
+        <f t="shared" si="3"/>
+        <v>192</v>
+      </c>
+    </row>
+    <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>191</v>
       </c>
@@ -13874,8 +14900,12 @@
       <c r="P255" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q255" s="8">
+        <f t="shared" si="3"/>
+        <v>1260.5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>191</v>
       </c>
@@ -13924,8 +14954,12 @@
       <c r="P256" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q256" s="8">
+        <f t="shared" si="3"/>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>191</v>
       </c>
@@ -13974,8 +15008,12 @@
       <c r="P257" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q257" s="8">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>191</v>
       </c>
@@ -14024,8 +15062,12 @@
       <c r="P258" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q258" s="8">
+        <f t="shared" si="3"/>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>191</v>
       </c>
@@ -14074,8 +15116,12 @@
       <c r="P259" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q259" s="8">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+    </row>
+    <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>191</v>
       </c>
@@ -14124,8 +15170,12 @@
       <c r="P260" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q260" s="8">
+        <f t="shared" si="3"/>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>191</v>
       </c>
@@ -14174,8 +15224,12 @@
       <c r="P261" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q261" s="8">
+        <f t="shared" ref="Q261:Q298" si="4">SUM(E261:P261)</f>
+        <v>212.5</v>
+      </c>
+    </row>
+    <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>191</v>
       </c>
@@ -14224,8 +15278,12 @@
       <c r="P262" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q262" s="8">
+        <f t="shared" si="4"/>
+        <v>336.5</v>
+      </c>
+    </row>
+    <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>194</v>
       </c>
@@ -14274,8 +15332,12 @@
       <c r="P263" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q263" s="8">
+        <f t="shared" si="4"/>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>194</v>
       </c>
@@ -14324,8 +15386,12 @@
       <c r="P264" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q264" s="8">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>194</v>
       </c>
@@ -14374,8 +15440,12 @@
       <c r="P265" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q265" s="8">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>194</v>
       </c>
@@ -14424,8 +15494,12 @@
       <c r="P266">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q266" s="8">
+        <f t="shared" si="4"/>
+        <v>2512</v>
+      </c>
+    </row>
+    <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>194</v>
       </c>
@@ -14474,8 +15548,12 @@
       <c r="P267" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q267" s="8">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>194</v>
       </c>
@@ -14524,8 +15602,12 @@
       <c r="P268">
         <v>0</v>
       </c>
-    </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q268" s="8">
+        <f t="shared" si="4"/>
+        <v>872</v>
+      </c>
+    </row>
+    <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>194</v>
       </c>
@@ -14574,8 +15656,12 @@
       <c r="P269" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q269" s="8">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>194</v>
       </c>
@@ -14624,8 +15710,12 @@
       <c r="P270">
         <v>0</v>
       </c>
-    </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q270" s="8">
+        <f t="shared" si="4"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>194</v>
       </c>
@@ -14674,8 +15764,12 @@
       <c r="P271">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q271" s="8">
+        <f t="shared" si="4"/>
+        <v>858</v>
+      </c>
+    </row>
+    <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>200</v>
       </c>
@@ -14724,8 +15818,12 @@
       <c r="P272" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="273" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q272" s="8">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>200</v>
       </c>
@@ -14774,8 +15872,12 @@
       <c r="P273" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="274" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q273" s="8">
+        <f t="shared" si="4"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>200</v>
       </c>
@@ -14824,8 +15926,12 @@
       <c r="P274" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="275" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q274" s="8">
+        <f t="shared" si="4"/>
+        <v>399</v>
+      </c>
+    </row>
+    <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>200</v>
       </c>
@@ -14874,8 +15980,12 @@
       <c r="P275" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="276" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q275" s="8">
+        <f t="shared" si="4"/>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>200</v>
       </c>
@@ -14924,8 +16034,12 @@
       <c r="P276" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="277" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q276" s="8">
+        <f t="shared" si="4"/>
+        <v>123</v>
+      </c>
+    </row>
+    <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>202</v>
       </c>
@@ -14974,8 +16088,12 @@
       <c r="P277" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="278" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q277" s="8">
+        <f t="shared" si="4"/>
+        <v>108.45</v>
+      </c>
+    </row>
+    <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>202</v>
       </c>
@@ -15024,8 +16142,12 @@
       <c r="P278" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="279" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q278" s="8">
+        <f t="shared" si="4"/>
+        <v>43.5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>202</v>
       </c>
@@ -15074,8 +16196,12 @@
       <c r="P279" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="280" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q279" s="8">
+        <f t="shared" si="4"/>
+        <v>20.5</v>
+      </c>
+    </row>
+    <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>202</v>
       </c>
@@ -15124,8 +16250,12 @@
       <c r="P280" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="281" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q280" s="8">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>202</v>
       </c>
@@ -15174,8 +16304,12 @@
       <c r="P281" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="282" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q281" s="8">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>202</v>
       </c>
@@ -15224,8 +16358,12 @@
       <c r="P282" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q282" s="8">
+        <f t="shared" si="4"/>
+        <v>13.45</v>
+      </c>
+    </row>
+    <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>206</v>
       </c>
@@ -15274,8 +16412,12 @@
       <c r="P283">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q283" s="8">
+        <f t="shared" si="4"/>
+        <v>1574.25</v>
+      </c>
+    </row>
+    <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>206</v>
       </c>
@@ -15324,8 +16466,12 @@
       <c r="P284" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="285" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q284" s="8">
+        <f t="shared" si="4"/>
+        <v>776</v>
+      </c>
+    </row>
+    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>206</v>
       </c>
@@ -15374,8 +16520,12 @@
       <c r="P285" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="286" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q285" s="8">
+        <f t="shared" si="4"/>
+        <v>62.25</v>
+      </c>
+    </row>
+    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>206</v>
       </c>
@@ -15424,8 +16574,12 @@
       <c r="P286">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q286" s="8">
+        <f t="shared" si="4"/>
+        <v>736</v>
+      </c>
+    </row>
+    <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>209</v>
       </c>
@@ -15474,8 +16628,12 @@
       <c r="P287">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q287" s="8">
+        <f t="shared" si="4"/>
+        <v>968</v>
+      </c>
+    </row>
+    <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>209</v>
       </c>
@@ -15524,8 +16682,12 @@
       <c r="P288" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="289" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q288" s="8">
+        <f t="shared" si="4"/>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>209</v>
       </c>
@@ -15574,8 +16736,12 @@
       <c r="P289">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q289" s="8">
+        <f t="shared" si="4"/>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>211</v>
       </c>
@@ -15624,8 +16790,12 @@
       <c r="P290">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q290" s="8">
+        <f t="shared" si="4"/>
+        <v>2476</v>
+      </c>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>211</v>
       </c>
@@ -15674,8 +16844,12 @@
       <c r="P291">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q291" s="8">
+        <f t="shared" si="4"/>
+        <v>832</v>
+      </c>
+    </row>
+    <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>211</v>
       </c>
@@ -15724,8 +16898,12 @@
       <c r="P292">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q292" s="8">
+        <f t="shared" si="4"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>211</v>
       </c>
@@ -15774,8 +16952,12 @@
       <c r="P293">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q293" s="8">
+        <f t="shared" si="4"/>
+        <v>828</v>
+      </c>
+    </row>
+    <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>211</v>
       </c>
@@ -15824,8 +17006,12 @@
       <c r="P294">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q294" s="8">
+        <f t="shared" si="4"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="295" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>211</v>
       </c>
@@ -15874,8 +17060,12 @@
       <c r="P295">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q295" s="8">
+        <f t="shared" si="4"/>
+        <v>816</v>
+      </c>
+    </row>
+    <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>211</v>
       </c>
@@ -15924,8 +17114,12 @@
       <c r="P296" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="297" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q296" s="8">
+        <f t="shared" si="4"/>
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>211</v>
       </c>
@@ -15974,8 +17168,12 @@
       <c r="P297" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="298" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q297" s="8">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>211</v>
       </c>
@@ -16023,6 +17221,10 @@
       </c>
       <c r="P298" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="Q298" s="8">
+        <f t="shared" si="4"/>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -16042,6 +17244,11 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
   </mergeCells>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>40</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -16213,18 +17420,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16247,6 +17454,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{09ABDBA5-B861-4C7F-B5F7-353E359527E4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
@@ -16261,12 +17476,4 @@
     <ds:schemaRef ds:uri="af8514bc-be7a-429c-a492-f298258d52a7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/resources/static/assets/uploads/equipos.xlsx
+++ b/src/resources/static/assets/uploads/equipos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertasaldana/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertasaldana/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8190F3C1-B0C8-A04B-B0A2-001C51A667F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{286739C4-B6B2-8849-AA94-6C72F8C7DC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20240" windowHeight="18900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -710,8 +710,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="#.0#############E+###"/>
+    <numFmt numFmtId="165" formatCode="#.0###############E+###"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -751,7 +752,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,24 +784,42 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1145,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q298"/>
+  <dimension ref="A1:W298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A259" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J290" sqref="J290"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="168" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C144" sqref="C144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1158,96 +1177,98 @@
     <col min="4" max="4" width="27.1640625" customWidth="1"/>
     <col min="5" max="6" width="15.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.6640625" customWidth="1"/>
-    <col min="17" max="17" width="13.5" style="8" customWidth="1"/>
+    <col min="23" max="23" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="5" t="s">
+      <c r="E1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="N1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="O1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="W1" s="9"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -1260,44 +1281,44 @@
       <c r="D3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -1346,12 +1367,9 @@
       <c r="P4">
         <v>0</v>
       </c>
-      <c r="Q4" s="8">
-        <f>SUM(E4:P4)</f>
-        <v>3581</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1400,12 +1418,9 @@
       <c r="P5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q5" s="8">
-        <f t="shared" ref="Q5:Q68" si="0">SUM(E5:P5)</f>
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1454,12 +1469,9 @@
       <c r="P6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q6" s="8">
-        <f t="shared" si="0"/>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -1508,12 +1520,9 @@
       <c r="P7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="8">
-        <f t="shared" si="0"/>
-        <v>569.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1562,66 +1571,60 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8" s="8">
-        <f t="shared" si="0"/>
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9" t="s">
+      <c r="Q8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L9" s="9">
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9">
         <v>11</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9">
         <v>2</v>
       </c>
-      <c r="O9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="11">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -1670,12 +1673,9 @@
       <c r="P10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" s="8">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1724,12 +1724,9 @@
       <c r="P11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q11" s="8">
-        <f t="shared" si="0"/>
-        <v>568.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -1778,12 +1775,9 @@
       <c r="P12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q12" s="8">
-        <f t="shared" si="0"/>
-        <v>378</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1832,12 +1826,9 @@
       <c r="P13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q13" s="8">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1886,66 +1877,60 @@
       <c r="P14">
         <v>0</v>
       </c>
-      <c r="Q14" s="8">
-        <f t="shared" si="0"/>
-        <v>416</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="9" t="s">
+      <c r="Q14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="9">
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15">
         <v>39</v>
       </c>
-      <c r="K15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P15" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -1994,10 +1979,7 @@
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="Q16" s="8">
-        <f t="shared" si="0"/>
-        <v>182</v>
-      </c>
+      <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -2048,10 +2030,7 @@
       <c r="P17">
         <v>83</v>
       </c>
-      <c r="Q17" s="8">
-        <f t="shared" si="0"/>
-        <v>5599</v>
-      </c>
+      <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -2102,10 +2081,7 @@
       <c r="P18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q18" s="8">
-        <f t="shared" si="0"/>
-        <v>368.5</v>
-      </c>
+      <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -2156,64 +2132,58 @@
       <c r="P19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q19" s="8">
-        <f t="shared" si="0"/>
-        <v>584.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="9" t="s">
+      <c r="Q19" s="5"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="9">
-        <v>0</v>
-      </c>
-      <c r="G20" s="9">
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="9">
+      <c r="E20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20">
         <v>13</v>
       </c>
-      <c r="M20" s="9">
+      <c r="M20">
         <v>9</v>
       </c>
-      <c r="N20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="11">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
+      <c r="N20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -2264,10 +2234,7 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21" s="8">
-        <f t="shared" si="0"/>
-        <v>858.5</v>
-      </c>
+      <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -2318,10 +2285,7 @@
       <c r="P22">
         <v>28</v>
       </c>
-      <c r="Q22" s="8">
-        <f t="shared" si="0"/>
-        <v>171.5</v>
-      </c>
+      <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -2372,10 +2336,7 @@
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23" s="8">
-        <f t="shared" si="0"/>
-        <v>783.75</v>
-      </c>
+      <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
@@ -2426,10 +2387,7 @@
       <c r="P24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q24" s="8">
-        <f t="shared" si="0"/>
-        <v>27.5</v>
-      </c>
+      <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
@@ -2480,10 +2438,7 @@
       <c r="P25">
         <v>0</v>
       </c>
-      <c r="Q25" s="8">
-        <f t="shared" si="0"/>
-        <v>887</v>
-      </c>
+      <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -2534,64 +2489,58 @@
       <c r="P26">
         <v>0</v>
       </c>
-      <c r="Q26" s="8">
-        <f t="shared" si="0"/>
-        <v>865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="Q26" s="5"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" t="s">
         <v>29</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M27" s="9">
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27">
         <v>33</v>
       </c>
-      <c r="N27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="11">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
+      <c r="N27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
@@ -2642,10 +2591,7 @@
       <c r="P28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q28" s="8">
-        <f t="shared" si="0"/>
-        <v>681.5</v>
-      </c>
+      <c r="Q28" s="5"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
@@ -2696,10 +2642,7 @@
       <c r="P29">
         <v>24.5</v>
       </c>
-      <c r="Q29" s="8">
-        <f t="shared" si="0"/>
-        <v>233.75</v>
-      </c>
+      <c r="Q29" s="5"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
@@ -2750,10 +2693,7 @@
       <c r="P30">
         <v>30.5</v>
       </c>
-      <c r="Q30" s="8">
-        <f t="shared" si="0"/>
-        <v>82.5</v>
-      </c>
+      <c r="Q30" s="5"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
@@ -2804,10 +2744,7 @@
       <c r="P31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q31" s="8">
-        <f t="shared" si="0"/>
-        <v>595.5</v>
-      </c>
+      <c r="Q31" s="5"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
@@ -2858,10 +2795,7 @@
       <c r="P32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q32" s="8">
-        <f t="shared" si="0"/>
-        <v>192.5</v>
-      </c>
+      <c r="Q32" s="5"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
@@ -2912,10 +2846,7 @@
       <c r="P33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q33" s="8">
-        <f t="shared" si="0"/>
-        <v>176</v>
-      </c>
+      <c r="Q33" s="5"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
@@ -2966,10 +2897,7 @@
       <c r="P34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q34" s="8">
-        <f t="shared" si="0"/>
-        <v>156</v>
-      </c>
+      <c r="Q34" s="5"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
@@ -3020,118 +2948,109 @@
       <c r="P35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q35" s="8">
-        <f t="shared" si="0"/>
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
+      <c r="Q35" s="5"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>41</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="9" t="s">
+      <c r="C36" t="s">
         <v>43</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" t="s">
         <v>16</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36">
         <v>14</v>
       </c>
-      <c r="F36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K36" s="9">
+      <c r="F36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36">
         <v>24</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P36" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q36" s="11">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
+      <c r="L36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="5"/>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" t="s">
         <v>43</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37">
         <v>14</v>
       </c>
-      <c r="F37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K37" s="9">
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37">
         <v>24</v>
       </c>
-      <c r="L37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P37" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q37" s="11">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
+      <c r="L37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="5"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
@@ -3182,10 +3101,7 @@
       <c r="P38">
         <v>0</v>
       </c>
-      <c r="Q38" s="8">
-        <f t="shared" si="0"/>
-        <v>1986.25</v>
-      </c>
+      <c r="Q38" s="5"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -3236,118 +3152,109 @@
       <c r="P39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q39" s="8">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="9" t="s">
+      <c r="Q39" s="5"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
         <v>49</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" t="s">
         <v>52</v>
       </c>
-      <c r="E40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I40" s="9">
+      <c r="E40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40">
         <v>20</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O40" s="9">
-        <v>0</v>
-      </c>
-      <c r="P40" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q40" s="11">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="9" t="s">
+      <c r="J40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="5"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>49</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" t="s">
         <v>51</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" t="s">
         <v>53</v>
       </c>
-      <c r="E41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" s="9">
+      <c r="E41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41">
         <v>24</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M41" s="9">
-        <v>0</v>
-      </c>
-      <c r="N41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P41" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q41" s="11">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" s="5"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -3398,10 +3305,7 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42" s="8">
-        <f t="shared" si="0"/>
-        <v>464</v>
-      </c>
+      <c r="Q42" s="5"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
@@ -3452,10 +3356,7 @@
       <c r="P43">
         <v>0</v>
       </c>
-      <c r="Q43" s="8">
-        <f t="shared" si="0"/>
-        <v>302</v>
-      </c>
+      <c r="Q43" s="5"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
@@ -3506,10 +3407,7 @@
       <c r="P44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q44" s="8">
-        <f t="shared" si="0"/>
-        <v>299</v>
-      </c>
+      <c r="Q44" s="5"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
@@ -3560,10 +3458,7 @@
       <c r="P45">
         <v>0</v>
       </c>
-      <c r="Q45" s="8">
-        <f t="shared" si="0"/>
-        <v>40.5</v>
-      </c>
+      <c r="Q45" s="5"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
@@ -3614,64 +3509,58 @@
       <c r="P46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q46" s="8">
-        <f t="shared" si="0"/>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9" t="s">
+      <c r="Q46" s="5"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" t="s">
         <v>50</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" t="s">
         <v>51</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" t="s">
         <v>43</v>
       </c>
-      <c r="E47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" s="9">
-        <v>0</v>
-      </c>
-      <c r="H47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M47" s="9">
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M47">
         <v>12</v>
       </c>
-      <c r="N47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P47" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q47" s="11">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+      <c r="N47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="5"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
@@ -3722,10 +3611,7 @@
       <c r="P48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q48" s="8">
-        <f t="shared" si="0"/>
-        <v>596.75</v>
-      </c>
+      <c r="Q48" s="5"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
@@ -3776,10 +3662,7 @@
       <c r="P49">
         <v>0</v>
       </c>
-      <c r="Q49" s="8">
-        <f t="shared" si="0"/>
-        <v>231.5</v>
-      </c>
+      <c r="Q49" s="5"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
@@ -3830,64 +3713,58 @@
       <c r="P50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q50" s="8">
-        <f t="shared" si="0"/>
-        <v>111</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="9" t="s">
+      <c r="Q50" s="5"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" t="s">
         <v>51</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51">
         <v>10.5</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51">
         <v>2.5</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H51" s="9">
+      <c r="G51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51">
         <v>14.25</v>
       </c>
-      <c r="I51" s="9">
+      <c r="I51">
         <v>3.5</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51">
         <v>1</v>
       </c>
-      <c r="K51" s="9">
-        <v>0</v>
-      </c>
-      <c r="L51" s="9">
-        <v>0</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N51" s="9">
-        <v>0</v>
-      </c>
-      <c r="O51" s="9">
-        <v>0</v>
-      </c>
-      <c r="P51" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="11">
-        <f t="shared" si="0"/>
-        <v>31.75</v>
-      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N51">
+        <v>0</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="5"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -3938,118 +3815,109 @@
       <c r="P52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q52" s="8">
-        <f t="shared" si="0"/>
-        <v>74.75</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="9" t="s">
+      <c r="Q52" s="5"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
         <v>49</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" t="s">
         <v>51</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" t="s">
         <v>51</v>
       </c>
-      <c r="E53" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F53" s="9">
+      <c r="E53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F53">
         <v>1</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53">
         <v>1.75</v>
       </c>
-      <c r="H53" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I53" s="9">
+      <c r="H53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53">
         <v>8.25</v>
       </c>
-      <c r="J53" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K53" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L53" s="9">
-        <v>0</v>
-      </c>
-      <c r="M53" s="9">
-        <v>0</v>
-      </c>
-      <c r="N53" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O53" s="9">
-        <v>0</v>
-      </c>
-      <c r="P53" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q53" s="11">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
+      <c r="J53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O53">
+        <v>0</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q53" s="5"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" t="s">
         <v>59</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" t="s">
         <v>51</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="9">
-        <v>0</v>
-      </c>
-      <c r="F54" s="9">
-        <v>0</v>
-      </c>
-      <c r="G54" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H54" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K54" s="9">
+      <c r="E54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K54">
         <v>2</v>
       </c>
-      <c r="L54" s="9">
+      <c r="L54">
         <v>1</v>
       </c>
-      <c r="M54" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N54" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O54" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P54" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q54" s="11">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
+      <c r="M54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q54" s="5"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -4100,10 +3968,7 @@
       <c r="P55">
         <v>0</v>
       </c>
-      <c r="Q55" s="8">
-        <f t="shared" si="0"/>
-        <v>2290.25</v>
-      </c>
+      <c r="Q55" s="5"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -4154,10 +4019,7 @@
       <c r="P56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q56" s="8">
-        <f t="shared" si="0"/>
-        <v>352</v>
-      </c>
+      <c r="Q56" s="5"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -4208,10 +4070,7 @@
       <c r="P57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q57" s="8">
-        <f t="shared" si="0"/>
-        <v>310.5</v>
-      </c>
+      <c r="Q57" s="5"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -4262,10 +4121,7 @@
       <c r="P58">
         <v>0</v>
       </c>
-      <c r="Q58" s="8">
-        <f t="shared" si="0"/>
-        <v>391.5</v>
-      </c>
+      <c r="Q58" s="5"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -4316,10 +4172,7 @@
       <c r="P59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q59" s="8">
-        <f t="shared" si="0"/>
-        <v>84</v>
-      </c>
+      <c r="Q59" s="5"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -4370,10 +4223,7 @@
       <c r="P60" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q60" s="8">
-        <f t="shared" si="0"/>
-        <v>373.25</v>
-      </c>
+      <c r="Q60" s="5"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -4424,10 +4274,7 @@
       <c r="P61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q61" s="8">
-        <f t="shared" si="0"/>
-        <v>380.25</v>
-      </c>
+      <c r="Q61" s="5"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -4478,10 +4325,7 @@
       <c r="P62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q62" s="8">
-        <f t="shared" si="0"/>
-        <v>57</v>
-      </c>
+      <c r="Q62" s="5"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -4532,10 +4376,7 @@
       <c r="P63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q63" s="8">
-        <f t="shared" si="0"/>
-        <v>140</v>
-      </c>
+      <c r="Q63" s="5"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -4586,10 +4427,7 @@
       <c r="P64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q64" s="8">
-        <f t="shared" si="0"/>
-        <v>136</v>
-      </c>
+      <c r="Q64" s="5"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
@@ -4640,10 +4478,7 @@
       <c r="P65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q65" s="8">
-        <f t="shared" si="0"/>
-        <v>65.75</v>
-      </c>
+      <c r="Q65" s="5"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
@@ -4694,10 +4529,7 @@
       <c r="P66">
         <v>0</v>
       </c>
-      <c r="Q66" s="8">
-        <f t="shared" si="0"/>
-        <v>550</v>
-      </c>
+      <c r="Q66" s="5"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
@@ -4748,10 +4580,7 @@
       <c r="P67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q67" s="8">
-        <f t="shared" si="0"/>
-        <v>50.5</v>
-      </c>
+      <c r="Q67" s="5"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
@@ -4802,64 +4631,58 @@
       <c r="P68">
         <v>0</v>
       </c>
-      <c r="Q68" s="8">
-        <f t="shared" si="0"/>
-        <v>168</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="9" t="s">
+      <c r="Q68" s="5"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>49</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" t="s">
         <v>64</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" t="s">
         <v>65</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="D69" t="s">
         <v>51</v>
       </c>
-      <c r="E69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I69" s="9">
+      <c r="E69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I69">
         <v>7.5</v>
       </c>
-      <c r="J69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O69" s="9">
-        <v>0</v>
-      </c>
-      <c r="P69" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q69" s="11">
-        <f t="shared" ref="Q69:Q132" si="1">SUM(E69:P69)</f>
-        <v>7.5</v>
-      </c>
+      <c r="J69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q69" s="5"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
@@ -4910,10 +4733,7 @@
       <c r="P70">
         <v>0</v>
       </c>
-      <c r="Q70" s="8">
-        <f t="shared" si="1"/>
-        <v>265</v>
-      </c>
+      <c r="Q70" s="5"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -4964,10 +4784,7 @@
       <c r="P71">
         <v>0</v>
       </c>
-      <c r="Q71" s="8">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
+      <c r="Q71" s="5"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -5018,10 +4835,7 @@
       <c r="P72">
         <v>0</v>
       </c>
-      <c r="Q72" s="8">
-        <f t="shared" si="1"/>
-        <v>2184</v>
-      </c>
+      <c r="Q72" s="5"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
@@ -5072,10 +4886,7 @@
       <c r="P73" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q73" s="8">
-        <f t="shared" si="1"/>
-        <v>432</v>
-      </c>
+      <c r="Q73" s="5"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -5126,10 +4937,7 @@
       <c r="P74">
         <v>0</v>
       </c>
-      <c r="Q74" s="8">
-        <f t="shared" si="1"/>
-        <v>866</v>
-      </c>
+      <c r="Q74" s="5"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
@@ -5180,10 +4988,7 @@
       <c r="P75">
         <v>0</v>
       </c>
-      <c r="Q75" s="8">
-        <f t="shared" si="1"/>
-        <v>886</v>
-      </c>
+      <c r="Q75" s="5"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
@@ -5234,118 +5039,109 @@
       <c r="P76">
         <v>0</v>
       </c>
-      <c r="Q76" s="8">
-        <f t="shared" si="1"/>
-        <v>658.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9" t="s">
+      <c r="Q76" s="5"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
         <v>221</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" t="s">
         <v>71</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="D77" t="s">
         <v>73</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J77" s="9">
+      <c r="E77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77">
         <v>6.5</v>
       </c>
-      <c r="K77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O77" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P77" s="9">
-        <v>0</v>
-      </c>
-      <c r="Q77" s="11">
-        <f t="shared" si="1"/>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="9" t="s">
+      <c r="K77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P77">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="5"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
         <v>221</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" t="s">
         <v>71</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" t="s">
         <v>72</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="D78" t="s">
         <v>74</v>
       </c>
-      <c r="E78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I78" s="9">
-        <v>0</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O78" s="9">
+      <c r="E78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O78">
         <v>13</v>
       </c>
-      <c r="P78" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q78" s="11">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
+      <c r="P78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q78" s="5"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
@@ -5396,10 +5192,7 @@
       <c r="P79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q79" s="8">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
+      <c r="Q79" s="5"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
@@ -5450,64 +5243,58 @@
       <c r="P80">
         <v>0</v>
       </c>
-      <c r="Q80" s="8">
-        <f t="shared" si="1"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="9" t="s">
+      <c r="Q80" s="5"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
         <v>221</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" t="s">
         <v>71</v>
       </c>
-      <c r="C81" s="9" t="s">
+      <c r="C81" t="s">
         <v>72</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="D81" t="s">
         <v>19</v>
       </c>
-      <c r="E81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="9">
+      <c r="E81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81">
         <v>4</v>
       </c>
-      <c r="J81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O81" s="9">
+      <c r="J81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O81">
         <v>8</v>
       </c>
-      <c r="P81" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q81" s="11">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
+      <c r="P81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q81" s="5"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
@@ -5558,64 +5345,58 @@
       <c r="P82">
         <v>0</v>
       </c>
-      <c r="Q82" s="8">
-        <f t="shared" si="1"/>
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="9" t="s">
+      <c r="Q82" s="5"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>221</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" t="s">
         <v>71</v>
       </c>
-      <c r="C83" s="9" t="s">
+      <c r="C83" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="D83" t="s">
         <v>76</v>
       </c>
-      <c r="E83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I83" s="9">
+      <c r="E83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83">
         <v>24</v>
       </c>
-      <c r="J83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O83" s="9">
-        <v>0</v>
-      </c>
-      <c r="P83" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q83" s="11">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
+      <c r="J83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O83">
+        <v>0</v>
+      </c>
+      <c r="P83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q83" s="5"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
@@ -5666,64 +5447,58 @@
       <c r="P84">
         <v>0</v>
       </c>
-      <c r="Q84" s="8">
-        <f t="shared" si="1"/>
-        <v>204</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="9" t="s">
+      <c r="Q84" s="5"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>221</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" t="s">
         <v>71</v>
       </c>
-      <c r="C85" s="9" t="s">
+      <c r="C85" t="s">
         <v>72</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="D85" t="s">
         <v>77</v>
       </c>
-      <c r="E85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="9">
-        <v>0</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O85" s="9">
+      <c r="E85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O85">
         <v>26</v>
       </c>
-      <c r="P85" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q85" s="11">
-        <f t="shared" si="1"/>
-        <v>26</v>
-      </c>
+      <c r="P85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q85" s="5"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
@@ -5774,64 +5549,58 @@
       <c r="P86">
         <v>0</v>
       </c>
-      <c r="Q86" s="8">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="9" t="s">
+      <c r="Q86" s="5"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>221</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" t="s">
         <v>71</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="C87" t="s">
         <v>72</v>
       </c>
-      <c r="D87" s="9" t="s">
+      <c r="D87" t="s">
         <v>27</v>
       </c>
-      <c r="E87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I87" s="9">
+      <c r="E87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87">
         <v>8</v>
       </c>
-      <c r="J87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O87" s="9">
-        <v>0</v>
-      </c>
-      <c r="P87" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q87" s="11">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
+      <c r="J87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O87">
+        <v>0</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q87" s="5"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
@@ -5882,10 +5651,7 @@
       <c r="P88" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q88" s="8">
-        <f t="shared" si="1"/>
-        <v>524.5</v>
-      </c>
+      <c r="Q88" s="5"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
@@ -5936,10 +5702,7 @@
       <c r="P89" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q89" s="8">
-        <f t="shared" si="1"/>
-        <v>49.5</v>
-      </c>
+      <c r="Q89" s="5"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
@@ -5990,10 +5753,7 @@
       <c r="P90" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q90" s="8">
-        <f t="shared" si="1"/>
-        <v>40.5</v>
-      </c>
+      <c r="Q90" s="5"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
@@ -6044,10 +5804,7 @@
       <c r="P91" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q91" s="8">
-        <f t="shared" si="1"/>
-        <v>66.5</v>
-      </c>
+      <c r="Q91" s="5"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
@@ -6098,10 +5855,7 @@
       <c r="P92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q92" s="8">
-        <f t="shared" si="1"/>
-        <v>328</v>
-      </c>
+      <c r="Q92" s="5"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
@@ -6152,10 +5906,7 @@
       <c r="P93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q93" s="8">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
+      <c r="Q93" s="5"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
@@ -6206,10 +5957,7 @@
       <c r="P94" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q94" s="8">
-        <f t="shared" si="1"/>
-        <v>806</v>
-      </c>
+      <c r="Q94" s="5"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
@@ -6260,10 +6008,7 @@
       <c r="P95" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q95" s="8">
-        <f t="shared" si="1"/>
-        <v>806</v>
-      </c>
+      <c r="Q95" s="5"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
@@ -6314,10 +6059,7 @@
       <c r="P96">
         <v>0</v>
       </c>
-      <c r="Q96" s="8">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
+      <c r="Q96" s="5"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -6368,10 +6110,7 @@
       <c r="P97">
         <v>0</v>
       </c>
-      <c r="Q97" s="8">
-        <f t="shared" si="1"/>
-        <v>224</v>
-      </c>
+      <c r="Q97" s="5"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
@@ -6422,10 +6161,7 @@
       <c r="P98">
         <v>0</v>
       </c>
-      <c r="Q98" s="8">
-        <f t="shared" si="1"/>
-        <v>379</v>
-      </c>
+      <c r="Q98" s="5"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
@@ -6476,118 +6212,109 @@
       <c r="P99">
         <v>0</v>
       </c>
-      <c r="Q99" s="8">
-        <f t="shared" si="1"/>
-        <v>265.5</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="9" t="s">
+      <c r="Q99" s="5"/>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>87</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" t="s">
         <v>88</v>
       </c>
-      <c r="C100" s="9" t="s">
+      <c r="C100" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="9" t="s">
+      <c r="D100" t="s">
         <v>89</v>
       </c>
-      <c r="E100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I100" s="9">
+      <c r="E100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100">
         <v>6</v>
       </c>
-      <c r="J100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O100" s="9">
-        <v>0</v>
-      </c>
-      <c r="P100" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q100" s="11">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="9" t="s">
+      <c r="J100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O100">
+        <v>0</v>
+      </c>
+      <c r="P100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q100" s="5"/>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
         <v>87</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" t="s">
         <v>88</v>
       </c>
-      <c r="C101" s="9" t="s">
+      <c r="C101" t="s">
         <v>89</v>
       </c>
-      <c r="D101" s="9" t="s">
+      <c r="D101" t="s">
         <v>90</v>
       </c>
-      <c r="E101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I101" s="9">
+      <c r="E101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101">
         <v>10</v>
       </c>
-      <c r="J101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O101" s="9">
-        <v>0</v>
-      </c>
-      <c r="P101" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q101" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="J101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O101">
+        <v>0</v>
+      </c>
+      <c r="P101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q101" s="5"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
@@ -6638,10 +6365,7 @@
       <c r="P102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q102" s="8">
-        <f t="shared" si="1"/>
-        <v>97.5</v>
-      </c>
+      <c r="Q102" s="5"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
@@ -6692,64 +6416,58 @@
       <c r="P103">
         <v>0</v>
       </c>
-      <c r="Q103" s="8">
-        <f t="shared" si="1"/>
-        <v>3495.25</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="9" t="s">
+      <c r="Q103" s="5"/>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
         <v>91</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" t="s">
         <v>92</v>
       </c>
-      <c r="C104" s="9" t="s">
+      <c r="C104" t="s">
         <v>93</v>
       </c>
-      <c r="D104" s="9" t="s">
+      <c r="D104" t="s">
         <v>74</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104">
         <v>11</v>
       </c>
-      <c r="F104" s="9">
+      <c r="F104">
         <v>6.5</v>
       </c>
-      <c r="G104" s="9">
+      <c r="G104">
         <v>4</v>
       </c>
-      <c r="H104" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I104" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J104" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K104" s="9">
+      <c r="H104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K104">
         <v>5</v>
       </c>
-      <c r="L104" s="9">
+      <c r="L104">
         <v>1</v>
       </c>
-      <c r="M104" s="9">
+      <c r="M104">
         <v>1.5</v>
       </c>
-      <c r="N104" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O104" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P104" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q104" s="11">
-        <f t="shared" si="1"/>
-        <v>29</v>
-      </c>
+      <c r="N104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P104" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q104" s="5"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
@@ -6800,10 +6518,7 @@
       <c r="P105">
         <v>0</v>
       </c>
-      <c r="Q105" s="8">
-        <f t="shared" si="1"/>
-        <v>889</v>
-      </c>
+      <c r="Q105" s="5"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
@@ -6854,10 +6569,7 @@
       <c r="P106">
         <v>0</v>
       </c>
-      <c r="Q106" s="8">
-        <f t="shared" si="1"/>
-        <v>867.25</v>
-      </c>
+      <c r="Q106" s="5"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
@@ -6908,10 +6620,7 @@
       <c r="P107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q107" s="8">
-        <f t="shared" si="1"/>
-        <v>88</v>
-      </c>
+      <c r="Q107" s="5"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
@@ -6962,10 +6671,7 @@
       <c r="P108">
         <v>0</v>
       </c>
-      <c r="Q108" s="8">
-        <f t="shared" si="1"/>
-        <v>752</v>
-      </c>
+      <c r="Q108" s="5"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
@@ -7016,64 +6722,58 @@
       <c r="P109">
         <v>0</v>
       </c>
-      <c r="Q109" s="8">
-        <f t="shared" si="1"/>
-        <v>832</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="9" t="s">
+      <c r="Q109" s="5"/>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
         <v>91</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" t="s">
         <v>92</v>
       </c>
-      <c r="C110" s="9" t="s">
+      <c r="C110" t="s">
         <v>93</v>
       </c>
-      <c r="D110" s="9" t="s">
+      <c r="D110" t="s">
         <v>98</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110">
         <v>34</v>
       </c>
-      <c r="F110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K110" s="9">
+      <c r="F110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K110">
         <v>4</v>
       </c>
-      <c r="L110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P110" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q110" s="11">
-        <f t="shared" si="1"/>
-        <v>38</v>
-      </c>
+      <c r="L110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P110" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q110" s="5"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
@@ -7124,10 +6824,7 @@
       <c r="P111" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q111" s="8">
-        <f t="shared" si="1"/>
-        <v>90</v>
-      </c>
+      <c r="Q111" s="5"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
@@ -7178,64 +6875,58 @@
       <c r="P112" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q112" s="8">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="9" t="s">
+      <c r="Q112" s="5"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
         <v>222</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" t="s">
         <v>99</v>
       </c>
-      <c r="C113" s="9" t="s">
+      <c r="C113" t="s">
         <v>100</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="D113" t="s">
         <v>102</v>
       </c>
-      <c r="E113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G113" s="9">
+      <c r="E113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G113">
         <v>10</v>
       </c>
-      <c r="H113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M113" s="9">
-        <v>0</v>
-      </c>
-      <c r="N113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P113" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q113" s="11">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
+      <c r="H113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P113" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q113" s="5"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
@@ -7286,10 +6977,7 @@
       <c r="P114" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q114" s="8">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
+      <c r="Q114" s="5"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
@@ -7340,172 +7028,160 @@
       <c r="P115" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q115" s="8">
-        <f t="shared" si="1"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="9" t="s">
+      <c r="Q115" s="5"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
         <v>222</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" t="s">
         <v>103</v>
       </c>
-      <c r="C116" s="9" t="s">
+      <c r="C116" t="s">
         <v>100</v>
       </c>
-      <c r="D116" s="9" t="s">
+      <c r="D116" t="s">
         <v>102</v>
       </c>
-      <c r="E116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G116" s="9">
+      <c r="E116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G116">
         <v>24</v>
       </c>
-      <c r="H116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M116" s="9">
-        <v>0</v>
-      </c>
-      <c r="N116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P116" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q116" s="11">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="9" t="s">
+      <c r="H116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P116" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q116" s="5"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
         <v>222</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" t="s">
         <v>105</v>
       </c>
-      <c r="C117" s="9" t="s">
+      <c r="C117" t="s">
         <v>100</v>
       </c>
-      <c r="D117" s="9" t="s">
+      <c r="D117" t="s">
         <v>16</v>
       </c>
-      <c r="E117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" s="9">
+      <c r="E117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G117">
         <v>16</v>
       </c>
-      <c r="H117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M117" s="9">
-        <v>0</v>
-      </c>
-      <c r="N117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P117" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q117" s="11">
-        <f t="shared" si="1"/>
+      <c r="H117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P117" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q117" s="5"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" t="s">
+        <v>105</v>
+      </c>
+      <c r="C118" t="s">
+        <v>100</v>
+      </c>
+      <c r="D118" t="s">
+        <v>102</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G118">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="B118" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G118" s="9">
-        <v>16</v>
-      </c>
-      <c r="H118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M118" s="9">
-        <v>0</v>
-      </c>
-      <c r="N118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P118" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q118" s="11">
-        <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
+      <c r="H118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P118" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q118" s="5"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
@@ -7556,10 +7232,7 @@
       <c r="P119" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q119" s="8">
-        <f t="shared" si="1"/>
-        <v>469</v>
-      </c>
+      <c r="Q119" s="5"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
@@ -7610,10 +7283,7 @@
       <c r="P120" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q120" s="8">
-        <f t="shared" si="1"/>
-        <v>285</v>
-      </c>
+      <c r="Q120" s="5"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
@@ -7664,10 +7334,7 @@
       <c r="P121" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q121" s="8">
-        <f t="shared" si="1"/>
-        <v>80</v>
-      </c>
+      <c r="Q121" s="5"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
@@ -7718,10 +7385,7 @@
       <c r="P122" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q122" s="8">
-        <f t="shared" si="1"/>
-        <v>104</v>
-      </c>
+      <c r="Q122" s="5"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
@@ -7772,10 +7436,7 @@
       <c r="P123">
         <v>0</v>
       </c>
-      <c r="Q123" s="8">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
+      <c r="Q123" s="5"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
@@ -7826,10 +7487,7 @@
       <c r="P124">
         <v>0</v>
       </c>
-      <c r="Q124" s="8">
-        <f t="shared" si="1"/>
-        <v>98</v>
-      </c>
+      <c r="Q124" s="5"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
@@ -7880,10 +7538,7 @@
       <c r="P125">
         <v>0</v>
       </c>
-      <c r="Q125" s="8">
-        <f t="shared" si="1"/>
-        <v>1296.5</v>
-      </c>
+      <c r="Q125" s="5"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
@@ -7934,10 +7589,7 @@
       <c r="P126" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q126" s="8">
-        <f t="shared" si="1"/>
-        <v>216</v>
-      </c>
+      <c r="Q126" s="5"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
@@ -7988,10 +7640,7 @@
       <c r="P127">
         <v>0</v>
       </c>
-      <c r="Q127" s="8">
-        <f t="shared" si="1"/>
-        <v>417.5</v>
-      </c>
+      <c r="Q127" s="5"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
@@ -8042,10 +7691,7 @@
       <c r="P128" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q128" s="8">
-        <f t="shared" si="1"/>
-        <v>272</v>
-      </c>
+      <c r="Q128" s="5"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
@@ -8096,10 +7742,7 @@
       <c r="P129">
         <v>0</v>
       </c>
-      <c r="Q129" s="8">
-        <f t="shared" si="1"/>
-        <v>391</v>
-      </c>
+      <c r="Q129" s="5"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
@@ -8150,10 +7793,7 @@
       <c r="P130">
         <v>0</v>
       </c>
-      <c r="Q130" s="8">
-        <f t="shared" si="1"/>
-        <v>594</v>
-      </c>
+      <c r="Q130" s="5"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
@@ -8204,10 +7844,7 @@
       <c r="P131">
         <v>0</v>
       </c>
-      <c r="Q131" s="8">
-        <f t="shared" si="1"/>
-        <v>594</v>
-      </c>
+      <c r="Q131" s="5"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -8258,10 +7895,7 @@
       <c r="P132" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q132" s="8">
-        <f t="shared" si="1"/>
-        <v>101.5</v>
-      </c>
+      <c r="Q132" s="5"/>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -8312,10 +7946,7 @@
       <c r="P133" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q133" s="8">
-        <f t="shared" ref="Q133:Q196" si="2">SUM(E133:P133)</f>
-        <v>101.5</v>
-      </c>
+      <c r="Q133" s="5"/>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
@@ -8366,10 +7997,7 @@
       <c r="P134">
         <v>0</v>
       </c>
-      <c r="Q134" s="8">
-        <f t="shared" si="2"/>
-        <v>603.5</v>
-      </c>
+      <c r="Q134" s="5"/>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
@@ -8420,10 +8048,7 @@
       <c r="P135" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q135" s="8">
-        <f t="shared" si="2"/>
-        <v>46.5</v>
-      </c>
+      <c r="Q135" s="5"/>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
@@ -8474,10 +8099,7 @@
       <c r="P136" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q136" s="8">
-        <f t="shared" si="2"/>
-        <v>336</v>
-      </c>
+      <c r="Q136" s="5"/>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
@@ -8528,10 +8150,7 @@
       <c r="P137">
         <v>18</v>
       </c>
-      <c r="Q137" s="8">
-        <f t="shared" si="2"/>
-        <v>1380.5</v>
-      </c>
+      <c r="Q137" s="5"/>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
@@ -8582,10 +8201,7 @@
       <c r="P138">
         <v>18</v>
       </c>
-      <c r="Q138" s="8">
-        <f t="shared" si="2"/>
-        <v>658</v>
-      </c>
+      <c r="Q138" s="5"/>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
@@ -8636,10 +8252,7 @@
       <c r="P139" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q139" s="8">
-        <f t="shared" si="2"/>
-        <v>722.5</v>
-      </c>
+      <c r="Q139" s="5"/>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
@@ -8690,10 +8303,7 @@
       <c r="P140">
         <v>114.5</v>
       </c>
-      <c r="Q140" s="8">
-        <f t="shared" si="2"/>
-        <v>1991.5</v>
-      </c>
+      <c r="Q140" s="5"/>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
@@ -8744,10 +8354,7 @@
       <c r="P141">
         <v>21.5</v>
       </c>
-      <c r="Q141" s="8">
-        <f t="shared" si="2"/>
-        <v>646.5</v>
-      </c>
+      <c r="Q141" s="5"/>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
@@ -8798,10 +8405,7 @@
       <c r="P142">
         <v>37</v>
       </c>
-      <c r="Q142" s="8">
-        <f t="shared" si="2"/>
-        <v>530</v>
-      </c>
+      <c r="Q142" s="5"/>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
@@ -8852,10 +8456,7 @@
       <c r="P143">
         <v>56</v>
       </c>
-      <c r="Q143" s="8">
-        <f t="shared" si="2"/>
-        <v>815</v>
-      </c>
+      <c r="Q143" s="5"/>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
@@ -8906,10 +8507,7 @@
       <c r="P144">
         <v>222.5</v>
       </c>
-      <c r="Q144" s="8">
-        <f t="shared" si="2"/>
-        <v>3060</v>
-      </c>
+      <c r="Q144" s="5"/>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
@@ -8960,64 +8558,58 @@
       <c r="P145" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q145" s="8">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="9" t="s">
+      <c r="Q145" s="5"/>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
         <v>112</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" t="s">
         <v>120</v>
       </c>
-      <c r="C146" s="9" t="s">
+      <c r="C146" t="s">
         <v>54</v>
       </c>
-      <c r="D146" s="9" t="s">
+      <c r="D146" t="s">
         <v>121</v>
       </c>
-      <c r="E146" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="F146" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H146" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I146" s="9">
-        <v>0</v>
-      </c>
-      <c r="J146" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K146" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L146" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M146" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N146" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O146" s="9">
+      <c r="E146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O146">
         <v>31</v>
       </c>
-      <c r="P146" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q146" s="11">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
+      <c r="P146" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q146" s="5"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
@@ -9068,10 +8660,7 @@
       <c r="P147">
         <v>18</v>
       </c>
-      <c r="Q147" s="8">
-        <f t="shared" si="2"/>
-        <v>102</v>
-      </c>
+      <c r="Q147" s="5"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
@@ -9122,10 +8711,7 @@
       <c r="P148">
         <v>64</v>
       </c>
-      <c r="Q148" s="8">
-        <f t="shared" si="2"/>
-        <v>461</v>
-      </c>
+      <c r="Q148" s="5"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
@@ -9176,10 +8762,7 @@
       <c r="P149" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q149" s="8">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
+      <c r="Q149" s="5"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
@@ -9230,64 +8813,58 @@
       <c r="P150">
         <v>45</v>
       </c>
-      <c r="Q150" s="8">
-        <f t="shared" si="2"/>
-        <v>578.5</v>
-      </c>
-    </row>
-    <row r="151" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="9" t="s">
+      <c r="Q150" s="5"/>
+    </row>
+    <row r="151" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
         <v>112</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" t="s">
         <v>120</v>
       </c>
-      <c r="C151" s="9" t="s">
+      <c r="C151" t="s">
         <v>54</v>
       </c>
-      <c r="D151" s="9" t="s">
+      <c r="D151" t="s">
         <v>30</v>
       </c>
-      <c r="E151" s="9">
-        <v>0</v>
-      </c>
-      <c r="F151" s="9">
-        <v>0</v>
-      </c>
-      <c r="G151" s="9">
-        <v>0</v>
-      </c>
-      <c r="H151" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I151" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="J151" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="K151" s="9">
+      <c r="E151">
+        <v>0</v>
+      </c>
+      <c r="F151">
+        <v>0</v>
+      </c>
+      <c r="G151">
+        <v>0</v>
+      </c>
+      <c r="H151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K151">
         <v>8</v>
       </c>
-      <c r="L151" s="9">
+      <c r="L151">
         <v>5.75</v>
       </c>
-      <c r="M151" s="9">
+      <c r="M151">
         <v>4.25</v>
       </c>
-      <c r="N151" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="O151" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P151" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q151" s="11">
-        <f t="shared" si="2"/>
-        <v>18</v>
-      </c>
+      <c r="N151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="P151" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q151" s="5"/>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
@@ -9338,10 +8915,7 @@
       <c r="P152" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q152" s="8">
-        <f t="shared" si="2"/>
-        <v>60.25</v>
-      </c>
+      <c r="Q152" s="5"/>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
@@ -9392,10 +8966,7 @@
       <c r="P153" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q153" s="8">
-        <f t="shared" si="2"/>
-        <v>124</v>
-      </c>
+      <c r="Q153" s="5"/>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
@@ -9446,10 +9017,7 @@
       <c r="P154">
         <v>41</v>
       </c>
-      <c r="Q154" s="8">
-        <f t="shared" si="2"/>
-        <v>427.75</v>
-      </c>
+      <c r="Q154" s="5"/>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
@@ -9500,10 +9068,7 @@
       <c r="P155">
         <v>10</v>
       </c>
-      <c r="Q155" s="8">
-        <f t="shared" si="2"/>
-        <v>396.5</v>
-      </c>
+      <c r="Q155" s="5"/>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
@@ -9554,10 +9119,7 @@
       <c r="P156" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q156" s="8">
-        <f t="shared" si="2"/>
-        <v>73</v>
-      </c>
+      <c r="Q156" s="5"/>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
@@ -9608,10 +9170,7 @@
       <c r="P157" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q157" s="8">
-        <f t="shared" si="2"/>
-        <v>123.5</v>
-      </c>
+      <c r="Q157" s="5"/>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
@@ -9662,10 +9221,7 @@
       <c r="P158" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q158" s="8">
-        <f t="shared" si="2"/>
-        <v>406.5</v>
-      </c>
+      <c r="Q158" s="5"/>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
@@ -9716,10 +9272,7 @@
       <c r="P159">
         <v>44.5</v>
       </c>
-      <c r="Q159" s="8">
-        <f t="shared" si="2"/>
-        <v>144</v>
-      </c>
+      <c r="Q159" s="5"/>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
@@ -9770,10 +9323,7 @@
       <c r="P160">
         <v>129</v>
       </c>
-      <c r="Q160" s="8">
-        <f t="shared" si="2"/>
-        <v>2097.75</v>
-      </c>
+      <c r="Q160" s="5"/>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
@@ -9824,10 +9374,7 @@
       <c r="P161" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q161" s="8">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
+      <c r="Q161" s="5"/>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
@@ -9878,10 +9425,7 @@
       <c r="P162">
         <v>32</v>
       </c>
-      <c r="Q162" s="8">
-        <f t="shared" si="2"/>
-        <v>832</v>
-      </c>
+      <c r="Q162" s="5"/>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
@@ -9932,10 +9476,7 @@
       <c r="P163">
         <v>3</v>
       </c>
-      <c r="Q163" s="8">
-        <f t="shared" si="2"/>
-        <v>65.5</v>
-      </c>
+      <c r="Q163" s="5"/>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
@@ -9986,10 +9527,7 @@
       <c r="P164">
         <v>24</v>
       </c>
-      <c r="Q164" s="8">
-        <f t="shared" si="2"/>
-        <v>809</v>
-      </c>
+      <c r="Q164" s="5"/>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
@@ -10040,10 +9578,7 @@
       <c r="P165" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q165" s="8">
-        <f t="shared" si="2"/>
-        <v>5.5</v>
-      </c>
+      <c r="Q165" s="5"/>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
@@ -10094,10 +9629,7 @@
       <c r="P166">
         <v>4</v>
       </c>
-      <c r="Q166" s="8">
-        <f t="shared" si="2"/>
-        <v>117.75</v>
-      </c>
+      <c r="Q166" s="5"/>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
@@ -10148,10 +9680,7 @@
       <c r="P167">
         <v>10</v>
       </c>
-      <c r="Q167" s="8">
-        <f t="shared" si="2"/>
-        <v>40.5</v>
-      </c>
+      <c r="Q167" s="5"/>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
@@ -10202,10 +9731,7 @@
       <c r="P168" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q168" s="8">
-        <f t="shared" si="2"/>
-        <v>77</v>
-      </c>
+      <c r="Q168" s="5"/>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
@@ -10256,10 +9782,7 @@
       <c r="P169" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q169" s="8">
-        <f t="shared" si="2"/>
-        <v>82.5</v>
-      </c>
+      <c r="Q169" s="5"/>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
@@ -10310,10 +9833,7 @@
       <c r="P170">
         <v>56</v>
       </c>
-      <c r="Q170" s="8">
-        <f t="shared" si="2"/>
-        <v>56</v>
-      </c>
+      <c r="Q170" s="5"/>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
@@ -10364,10 +9884,7 @@
       <c r="P171">
         <v>76.289999999999992</v>
       </c>
-      <c r="Q171" s="8">
-        <f t="shared" si="2"/>
-        <v>702.03</v>
-      </c>
+      <c r="Q171" s="5"/>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
@@ -10418,10 +9935,7 @@
       <c r="P172">
         <v>1</v>
       </c>
-      <c r="Q172" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
+      <c r="Q172" s="5"/>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
@@ -10472,10 +9986,7 @@
       <c r="P173">
         <v>26</v>
       </c>
-      <c r="Q173" s="8">
-        <f t="shared" si="2"/>
-        <v>195.75</v>
-      </c>
+      <c r="Q173" s="5"/>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
@@ -10526,10 +10037,7 @@
       <c r="P174" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q174" s="8">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
+      <c r="Q174" s="5"/>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
@@ -10580,10 +10088,7 @@
       <c r="P175">
         <v>49.29</v>
       </c>
-      <c r="Q175" s="8">
-        <f t="shared" si="2"/>
-        <v>486.28000000000003</v>
-      </c>
+      <c r="Q175" s="5"/>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
@@ -10634,10 +10139,7 @@
       <c r="P176" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q176" s="8">
-        <f t="shared" si="2"/>
-        <v>97.75</v>
-      </c>
+      <c r="Q176" s="5"/>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
@@ -10688,10 +10190,7 @@
       <c r="P177" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q177" s="8">
-        <f t="shared" si="2"/>
-        <v>31</v>
-      </c>
+      <c r="Q177" s="5"/>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
@@ -10742,10 +10241,7 @@
       <c r="P178" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q178" s="8">
-        <f t="shared" si="2"/>
-        <v>11</v>
-      </c>
+      <c r="Q178" s="5"/>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
@@ -10796,10 +10292,7 @@
       <c r="P179" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q179" s="8">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
+      <c r="Q179" s="5"/>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
@@ -10850,10 +10343,7 @@
       <c r="P180" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q180" s="8">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
+      <c r="Q180" s="5"/>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
@@ -10904,10 +10394,7 @@
       <c r="P181" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q181" s="8">
-        <f t="shared" si="2"/>
-        <v>46.75</v>
-      </c>
+      <c r="Q181" s="5"/>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
@@ -10958,10 +10445,7 @@
       <c r="P182">
         <v>167</v>
       </c>
-      <c r="Q182" s="8">
-        <f t="shared" si="2"/>
-        <v>3205.5</v>
-      </c>
+      <c r="Q182" s="5"/>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
@@ -11012,10 +10496,7 @@
       <c r="P183" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q183" s="8">
-        <f t="shared" si="2"/>
-        <v>740</v>
-      </c>
+      <c r="Q183" s="5"/>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
@@ -11066,10 +10547,7 @@
       <c r="P184">
         <v>64</v>
       </c>
-      <c r="Q184" s="8">
-        <f t="shared" si="2"/>
-        <v>909.5</v>
-      </c>
+      <c r="Q184" s="5"/>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
@@ -11120,10 +10598,7 @@
       <c r="P185">
         <v>56</v>
       </c>
-      <c r="Q185" s="8">
-        <f t="shared" si="2"/>
-        <v>730.5</v>
-      </c>
+      <c r="Q185" s="5"/>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
@@ -11174,10 +10649,7 @@
       <c r="P186" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q186" s="8">
-        <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
+      <c r="Q186" s="5"/>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
@@ -11228,10 +10700,7 @@
       <c r="P187">
         <v>47</v>
       </c>
-      <c r="Q187" s="8">
-        <f t="shared" si="2"/>
-        <v>695.5</v>
-      </c>
+      <c r="Q187" s="5"/>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
@@ -11282,10 +10751,7 @@
       <c r="P188" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q188" s="8">
-        <f t="shared" si="2"/>
-        <v>43.5</v>
-      </c>
+      <c r="Q188" s="5"/>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
@@ -11336,10 +10802,7 @@
       <c r="P189" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q189" s="8">
-        <f t="shared" si="2"/>
-        <v>37.5</v>
-      </c>
+      <c r="Q189" s="5"/>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
@@ -11390,10 +10853,7 @@
       <c r="P190">
         <v>114.75</v>
       </c>
-      <c r="Q190" s="8">
-        <f t="shared" si="2"/>
-        <v>2972.3</v>
-      </c>
+      <c r="Q190" s="5"/>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
@@ -11444,10 +10904,7 @@
       <c r="P191" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q191" s="8">
-        <f t="shared" si="2"/>
-        <v>752</v>
-      </c>
+      <c r="Q191" s="5"/>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
@@ -11498,10 +10955,7 @@
       <c r="P192" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q192" s="8">
-        <f t="shared" si="2"/>
-        <v>811</v>
-      </c>
+      <c r="Q192" s="5"/>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
@@ -11552,10 +11006,7 @@
       <c r="P193">
         <v>62.75</v>
       </c>
-      <c r="Q193" s="8">
-        <f t="shared" si="2"/>
-        <v>861.3</v>
-      </c>
+      <c r="Q193" s="5"/>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
@@ -11606,10 +11057,7 @@
       <c r="P194">
         <v>52</v>
       </c>
-      <c r="Q194" s="8">
-        <f t="shared" si="2"/>
-        <v>548</v>
-      </c>
+      <c r="Q194" s="5"/>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
@@ -11660,10 +11108,7 @@
       <c r="P195">
         <v>8.5</v>
       </c>
-      <c r="Q195" s="8">
-        <f t="shared" si="2"/>
-        <v>108.25</v>
-      </c>
+      <c r="Q195" s="5"/>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
@@ -11714,10 +11159,7 @@
       <c r="P196" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q196" s="8">
-        <f t="shared" si="2"/>
-        <v>35</v>
-      </c>
+      <c r="Q196" s="5"/>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
@@ -11768,10 +11210,7 @@
       <c r="P197">
         <v>5</v>
       </c>
-      <c r="Q197" s="8">
-        <f t="shared" ref="Q197:Q260" si="3">SUM(E197:P197)</f>
-        <v>27</v>
-      </c>
+      <c r="Q197" s="5"/>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
@@ -11822,10 +11261,7 @@
       <c r="P198">
         <v>3.5</v>
       </c>
-      <c r="Q198" s="8">
-        <f t="shared" si="3"/>
-        <v>36.75</v>
-      </c>
+      <c r="Q198" s="5"/>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
@@ -11876,10 +11312,7 @@
       <c r="P199" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q199" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5</v>
-      </c>
+      <c r="Q199" s="5"/>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
@@ -11930,10 +11363,7 @@
       <c r="P200" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q200" s="8">
-        <f t="shared" si="3"/>
-        <v>2473</v>
-      </c>
+      <c r="Q200" s="5"/>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
@@ -11984,10 +11414,7 @@
       <c r="P201" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q201" s="8">
-        <f t="shared" si="3"/>
-        <v>736</v>
-      </c>
+      <c r="Q201" s="5"/>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -12038,10 +11465,7 @@
       <c r="P202" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q202" s="8">
-        <f t="shared" si="3"/>
-        <v>621.5</v>
-      </c>
+      <c r="Q202" s="5"/>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
@@ -12092,10 +11516,7 @@
       <c r="P203" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q203" s="8">
-        <f t="shared" si="3"/>
-        <v>740.5</v>
-      </c>
+      <c r="Q203" s="5"/>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
@@ -12146,10 +11567,7 @@
       <c r="P204" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q204" s="8">
-        <f t="shared" si="3"/>
-        <v>375</v>
-      </c>
+      <c r="Q204" s="5"/>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
@@ -12200,10 +11618,7 @@
       <c r="P205">
         <v>32</v>
       </c>
-      <c r="Q205" s="8">
-        <f t="shared" si="3"/>
-        <v>432</v>
-      </c>
+      <c r="Q205" s="5"/>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
@@ -12254,10 +11669,7 @@
       <c r="P206">
         <v>32</v>
       </c>
-      <c r="Q206" s="8">
-        <f t="shared" si="3"/>
-        <v>432</v>
-      </c>
+      <c r="Q206" s="5"/>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
@@ -12308,10 +11720,7 @@
       <c r="P207">
         <v>18</v>
       </c>
-      <c r="Q207" s="8">
-        <f t="shared" si="3"/>
-        <v>329.5</v>
-      </c>
+      <c r="Q207" s="5"/>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
@@ -12362,10 +11771,7 @@
       <c r="P208">
         <v>8</v>
       </c>
-      <c r="Q208" s="8">
-        <f t="shared" si="3"/>
-        <v>53.5</v>
-      </c>
+      <c r="Q208" s="5"/>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
@@ -12416,10 +11822,7 @@
       <c r="P209" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q209" s="8">
-        <f t="shared" si="3"/>
-        <v>116.5</v>
-      </c>
+      <c r="Q209" s="5"/>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
@@ -12470,10 +11873,7 @@
       <c r="P210">
         <v>10</v>
       </c>
-      <c r="Q210" s="8">
-        <f t="shared" si="3"/>
-        <v>159.5</v>
-      </c>
+      <c r="Q210" s="5"/>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
@@ -12524,10 +11924,7 @@
       <c r="P211" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q211" s="8">
-        <f t="shared" si="3"/>
-        <v>472</v>
-      </c>
+      <c r="Q211" s="5"/>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
@@ -12578,10 +11975,7 @@
       <c r="P212" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q212" s="8">
-        <f t="shared" si="3"/>
-        <v>472</v>
-      </c>
+      <c r="Q212" s="5"/>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
@@ -12632,10 +12026,7 @@
       <c r="P213" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q213" s="8">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
+      <c r="Q213" s="5"/>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
@@ -12686,10 +12077,7 @@
       <c r="P214" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q214" s="8">
-        <f t="shared" si="3"/>
-        <v>22</v>
-      </c>
+      <c r="Q214" s="5"/>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
@@ -12740,10 +12128,7 @@
       <c r="P215">
         <v>0</v>
       </c>
-      <c r="Q215" s="8">
-        <f t="shared" si="3"/>
-        <v>5983</v>
-      </c>
+      <c r="Q215" s="5"/>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
@@ -12794,10 +12179,7 @@
       <c r="P216">
         <v>0</v>
       </c>
-      <c r="Q216" s="8">
-        <f t="shared" si="3"/>
-        <v>880</v>
-      </c>
+      <c r="Q216" s="5"/>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
@@ -12848,10 +12230,7 @@
       <c r="P217" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q217" s="8">
-        <f t="shared" si="3"/>
-        <v>809</v>
-      </c>
+      <c r="Q217" s="5"/>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
@@ -12902,10 +12281,7 @@
       <c r="P218">
         <v>0</v>
       </c>
-      <c r="Q218" s="8">
-        <f t="shared" si="3"/>
-        <v>791.5</v>
-      </c>
+      <c r="Q218" s="5"/>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
@@ -12956,10 +12332,7 @@
       <c r="P219">
         <v>0</v>
       </c>
-      <c r="Q219" s="8">
-        <f t="shared" si="3"/>
-        <v>886.5</v>
-      </c>
+      <c r="Q219" s="5"/>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
@@ -13010,10 +12383,7 @@
       <c r="P220">
         <v>0</v>
       </c>
-      <c r="Q220" s="8">
-        <f t="shared" si="3"/>
-        <v>872</v>
-      </c>
+      <c r="Q220" s="5"/>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
@@ -13064,10 +12434,7 @@
       <c r="P221">
         <v>0</v>
       </c>
-      <c r="Q221" s="8">
-        <f t="shared" si="3"/>
-        <v>896</v>
-      </c>
+      <c r="Q221" s="5"/>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
@@ -13118,10 +12485,7 @@
       <c r="P222">
         <v>0</v>
       </c>
-      <c r="Q222" s="8">
-        <f t="shared" si="3"/>
-        <v>848</v>
-      </c>
+      <c r="Q222" s="5"/>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
@@ -13172,10 +12536,7 @@
       <c r="P223">
         <v>0</v>
       </c>
-      <c r="Q223" s="8">
-        <f t="shared" si="3"/>
-        <v>3404.5</v>
-      </c>
+      <c r="Q223" s="5"/>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
@@ -13226,10 +12587,7 @@
       <c r="P224" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q224" s="8">
-        <f t="shared" si="3"/>
-        <v>760</v>
-      </c>
+      <c r="Q224" s="5"/>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
@@ -13280,10 +12638,7 @@
       <c r="P225" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q225" s="8">
-        <f t="shared" si="3"/>
-        <v>464</v>
-      </c>
+      <c r="Q225" s="5"/>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
@@ -13334,10 +12689,7 @@
       <c r="P226">
         <v>0</v>
       </c>
-      <c r="Q226" s="8">
-        <f t="shared" si="3"/>
-        <v>768</v>
-      </c>
+      <c r="Q226" s="5"/>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
@@ -13388,10 +12740,7 @@
       <c r="P227" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q227" s="8">
-        <f t="shared" si="3"/>
-        <v>283</v>
-      </c>
+      <c r="Q227" s="5"/>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
@@ -13442,10 +12791,7 @@
       <c r="P228" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q228" s="8">
-        <f t="shared" si="3"/>
-        <v>516</v>
-      </c>
+      <c r="Q228" s="5"/>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
@@ -13496,10 +12842,7 @@
       <c r="P229">
         <v>0</v>
       </c>
-      <c r="Q229" s="8">
-        <f t="shared" si="3"/>
-        <v>477.5</v>
-      </c>
+      <c r="Q229" s="5"/>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
@@ -13550,10 +12893,7 @@
       <c r="P230" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q230" s="8">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
+      <c r="Q230" s="5"/>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
@@ -13604,10 +12944,7 @@
       <c r="P231">
         <v>0</v>
       </c>
-      <c r="Q231" s="8">
-        <f t="shared" si="3"/>
-        <v>1009</v>
-      </c>
+      <c r="Q231" s="5"/>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
@@ -13658,10 +12995,7 @@
       <c r="P232">
         <v>0</v>
       </c>
-      <c r="Q232" s="8">
-        <f t="shared" si="3"/>
-        <v>97</v>
-      </c>
+      <c r="Q232" s="5"/>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
@@ -13712,10 +13046,7 @@
       <c r="P233">
         <v>0</v>
       </c>
-      <c r="Q233" s="8">
-        <f t="shared" si="3"/>
-        <v>912</v>
-      </c>
+      <c r="Q233" s="5"/>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
@@ -13766,10 +13097,7 @@
       <c r="P234" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q234" s="8">
-        <f t="shared" si="3"/>
-        <v>649.5</v>
-      </c>
+      <c r="Q234" s="5"/>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
@@ -13820,10 +13148,7 @@
       <c r="P235" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q235" s="8">
-        <f t="shared" si="3"/>
-        <v>87</v>
-      </c>
+      <c r="Q235" s="5"/>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
@@ -13874,10 +13199,7 @@
       <c r="P236" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q236" s="8">
-        <f t="shared" si="3"/>
-        <v>132.75</v>
-      </c>
+      <c r="Q236" s="5"/>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
@@ -13928,10 +13250,7 @@
       <c r="P237" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q237" s="8">
-        <f t="shared" si="3"/>
-        <v>9.5</v>
-      </c>
+      <c r="Q237" s="5"/>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
@@ -13982,10 +13301,7 @@
       <c r="P238" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q238" s="8">
-        <f t="shared" si="3"/>
-        <v>165.5</v>
-      </c>
+      <c r="Q238" s="5"/>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
@@ -14036,10 +13352,7 @@
       <c r="P239" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q239" s="8">
-        <f t="shared" si="3"/>
-        <v>254.75</v>
-      </c>
+      <c r="Q239" s="5"/>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
@@ -14090,10 +13403,7 @@
       <c r="P240" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q240" s="8">
-        <f t="shared" si="3"/>
-        <v>386</v>
-      </c>
+      <c r="Q240" s="5"/>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
@@ -14144,10 +13454,7 @@
       <c r="P241" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q241" s="8">
-        <f t="shared" si="3"/>
-        <v>229.5</v>
-      </c>
+      <c r="Q241" s="5"/>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
@@ -14198,10 +13505,7 @@
       <c r="P242" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q242" s="8">
-        <f t="shared" si="3"/>
-        <v>152</v>
-      </c>
+      <c r="Q242" s="5"/>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
@@ -14252,10 +13556,7 @@
       <c r="P243" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q243" s="8">
-        <f t="shared" si="3"/>
-        <v>4.5</v>
-      </c>
+      <c r="Q243" s="5"/>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
@@ -14306,10 +13607,7 @@
       <c r="P244">
         <v>0</v>
       </c>
-      <c r="Q244" s="8">
-        <f t="shared" si="3"/>
-        <v>3674.5</v>
-      </c>
+      <c r="Q244" s="5"/>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
@@ -14360,10 +13658,7 @@
       <c r="P245" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q245" s="8">
-        <f t="shared" si="3"/>
-        <v>168</v>
-      </c>
+      <c r="Q245" s="5"/>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
@@ -14414,10 +13709,7 @@
       <c r="P246" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q246" s="8">
-        <f t="shared" si="3"/>
-        <v>664</v>
-      </c>
+      <c r="Q246" s="5"/>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
@@ -14468,10 +13760,7 @@
       <c r="P247">
         <v>0</v>
       </c>
-      <c r="Q247" s="8">
-        <f t="shared" si="3"/>
-        <v>717</v>
-      </c>
+      <c r="Q247" s="5"/>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
@@ -14522,10 +13811,7 @@
       <c r="P248" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q248" s="8">
-        <f t="shared" si="3"/>
-        <v>768</v>
-      </c>
+      <c r="Q248" s="5"/>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
@@ -14576,10 +13862,7 @@
       <c r="P249" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q249" s="8">
-        <f t="shared" si="3"/>
-        <v>756</v>
-      </c>
+      <c r="Q249" s="5"/>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
@@ -14630,10 +13913,7 @@
       <c r="P250" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q250" s="8">
-        <f t="shared" si="3"/>
-        <v>601.5</v>
-      </c>
+      <c r="Q250" s="5"/>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
@@ -14684,10 +13964,7 @@
       <c r="P251">
         <v>0</v>
       </c>
-      <c r="Q251" s="8">
-        <f t="shared" si="3"/>
-        <v>656</v>
-      </c>
+      <c r="Q251" s="5"/>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
@@ -14738,10 +14015,7 @@
       <c r="P252">
         <v>0</v>
       </c>
-      <c r="Q252" s="8">
-        <f t="shared" si="3"/>
-        <v>272</v>
-      </c>
+      <c r="Q252" s="5"/>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
@@ -14792,10 +14066,7 @@
       <c r="P253">
         <v>0</v>
       </c>
-      <c r="Q253" s="8">
-        <f t="shared" si="3"/>
-        <v>192</v>
-      </c>
+      <c r="Q253" s="5"/>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
@@ -14846,10 +14117,7 @@
       <c r="P254">
         <v>0</v>
       </c>
-      <c r="Q254" s="8">
-        <f t="shared" si="3"/>
-        <v>192</v>
-      </c>
+      <c r="Q254" s="5"/>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
@@ -14900,10 +14168,7 @@
       <c r="P255" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q255" s="8">
-        <f t="shared" si="3"/>
-        <v>1260.5</v>
-      </c>
+      <c r="Q255" s="5"/>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
@@ -14954,10 +14219,7 @@
       <c r="P256" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q256" s="8">
-        <f t="shared" si="3"/>
-        <v>227</v>
-      </c>
+      <c r="Q256" s="5"/>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
@@ -15008,10 +14270,7 @@
       <c r="P257" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q257" s="8">
-        <f t="shared" si="3"/>
-        <v>56</v>
-      </c>
+      <c r="Q257" s="5"/>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
@@ -15062,10 +14321,7 @@
       <c r="P258" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q258" s="8">
-        <f t="shared" si="3"/>
-        <v>284</v>
-      </c>
+      <c r="Q258" s="5"/>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
@@ -15116,10 +14372,7 @@
       <c r="P259" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q259" s="8">
-        <f t="shared" si="3"/>
-        <v>122</v>
-      </c>
+      <c r="Q259" s="5"/>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
@@ -15170,10 +14423,7 @@
       <c r="P260" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q260" s="8">
-        <f t="shared" si="3"/>
-        <v>22.5</v>
-      </c>
+      <c r="Q260" s="5"/>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
@@ -15224,10 +14474,7 @@
       <c r="P261" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q261" s="8">
-        <f t="shared" ref="Q261:Q298" si="4">SUM(E261:P261)</f>
-        <v>212.5</v>
-      </c>
+      <c r="Q261" s="5"/>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
@@ -15278,10 +14525,7 @@
       <c r="P262" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q262" s="8">
-        <f t="shared" si="4"/>
-        <v>336.5</v>
-      </c>
+      <c r="Q262" s="5"/>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
@@ -15332,10 +14576,7 @@
       <c r="P263" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q263" s="8">
-        <f t="shared" si="4"/>
-        <v>24.5</v>
-      </c>
+      <c r="Q263" s="5"/>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
@@ -15386,10 +14627,7 @@
       <c r="P264" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q264" s="8">
-        <f t="shared" si="4"/>
-        <v>24</v>
-      </c>
+      <c r="Q264" s="5"/>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
@@ -15440,10 +14678,7 @@
       <c r="P265" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q265" s="8">
-        <f t="shared" si="4"/>
-        <v>0.5</v>
-      </c>
+      <c r="Q265" s="5"/>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
@@ -15494,10 +14729,7 @@
       <c r="P266">
         <v>0</v>
       </c>
-      <c r="Q266" s="8">
-        <f t="shared" si="4"/>
-        <v>2512</v>
-      </c>
+      <c r="Q266" s="5"/>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
@@ -15548,10 +14780,7 @@
       <c r="P267" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q267" s="8">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
+      <c r="Q267" s="5"/>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
@@ -15602,10 +14831,7 @@
       <c r="P268">
         <v>0</v>
       </c>
-      <c r="Q268" s="8">
-        <f t="shared" si="4"/>
-        <v>872</v>
-      </c>
+      <c r="Q268" s="5"/>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
@@ -15656,10 +14882,7 @@
       <c r="P269" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q269" s="8">
-        <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
+      <c r="Q269" s="5"/>
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
@@ -15710,10 +14933,7 @@
       <c r="P270">
         <v>0</v>
       </c>
-      <c r="Q270" s="8">
-        <f t="shared" si="4"/>
-        <v>776</v>
-      </c>
+      <c r="Q270" s="5"/>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
@@ -15764,10 +14984,7 @@
       <c r="P271">
         <v>0</v>
       </c>
-      <c r="Q271" s="8">
-        <f t="shared" si="4"/>
-        <v>858</v>
-      </c>
+      <c r="Q271" s="5"/>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
@@ -15818,10 +15035,7 @@
       <c r="P272" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q272" s="8">
-        <f t="shared" si="4"/>
-        <v>184</v>
-      </c>
+      <c r="Q272" s="5"/>
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
@@ -15872,10 +15086,7 @@
       <c r="P273" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q273" s="8">
-        <f t="shared" si="4"/>
-        <v>184</v>
-      </c>
+      <c r="Q273" s="5"/>
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
@@ -15926,10 +15137,7 @@
       <c r="P274" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q274" s="8">
-        <f t="shared" si="4"/>
-        <v>399</v>
-      </c>
+      <c r="Q274" s="5"/>
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
@@ -15980,10 +15188,7 @@
       <c r="P275" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q275" s="8">
-        <f t="shared" si="4"/>
-        <v>276</v>
-      </c>
+      <c r="Q275" s="5"/>
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
@@ -16034,10 +15239,7 @@
       <c r="P276" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q276" s="8">
-        <f t="shared" si="4"/>
-        <v>123</v>
-      </c>
+      <c r="Q276" s="5"/>
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
@@ -16088,10 +15290,7 @@
       <c r="P277" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q277" s="8">
-        <f t="shared" si="4"/>
-        <v>108.45</v>
-      </c>
+      <c r="Q277" s="5"/>
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
@@ -16142,10 +15341,7 @@
       <c r="P278" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q278" s="8">
-        <f t="shared" si="4"/>
-        <v>43.5</v>
-      </c>
+      <c r="Q278" s="5"/>
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
@@ -16196,10 +15392,7 @@
       <c r="P279" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q279" s="8">
-        <f t="shared" si="4"/>
-        <v>20.5</v>
-      </c>
+      <c r="Q279" s="5"/>
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
@@ -16250,10 +15443,7 @@
       <c r="P280" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q280" s="8">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
+      <c r="Q280" s="5"/>
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
@@ -16304,10 +15494,7 @@
       <c r="P281" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q281" s="8">
-        <f t="shared" si="4"/>
-        <v>25</v>
-      </c>
+      <c r="Q281" s="5"/>
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
@@ -16358,10 +15545,7 @@
       <c r="P282" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q282" s="8">
-        <f t="shared" si="4"/>
-        <v>13.45</v>
-      </c>
+      <c r="Q282" s="5"/>
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
@@ -16412,10 +15596,7 @@
       <c r="P283">
         <v>0</v>
       </c>
-      <c r="Q283" s="8">
-        <f t="shared" si="4"/>
-        <v>1574.25</v>
-      </c>
+      <c r="Q283" s="5"/>
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
@@ -16466,10 +15647,7 @@
       <c r="P284" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q284" s="8">
-        <f t="shared" si="4"/>
-        <v>776</v>
-      </c>
+      <c r="Q284" s="5"/>
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
@@ -16520,10 +15698,7 @@
       <c r="P285" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q285" s="8">
-        <f t="shared" si="4"/>
-        <v>62.25</v>
-      </c>
+      <c r="Q285" s="5"/>
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
@@ -16574,10 +15749,7 @@
       <c r="P286">
         <v>0</v>
       </c>
-      <c r="Q286" s="8">
-        <f t="shared" si="4"/>
-        <v>736</v>
-      </c>
+      <c r="Q286" s="5"/>
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
@@ -16628,10 +15800,7 @@
       <c r="P287">
         <v>0</v>
       </c>
-      <c r="Q287" s="8">
-        <f t="shared" si="4"/>
-        <v>968</v>
-      </c>
+      <c r="Q287" s="5"/>
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
@@ -16682,10 +15851,7 @@
       <c r="P288" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q288" s="8">
-        <f t="shared" si="4"/>
-        <v>336</v>
-      </c>
+      <c r="Q288" s="5"/>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
@@ -16736,10 +15902,7 @@
       <c r="P289">
         <v>0</v>
       </c>
-      <c r="Q289" s="8">
-        <f t="shared" si="4"/>
-        <v>632</v>
-      </c>
+      <c r="Q289" s="5"/>
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
@@ -16790,10 +15953,7 @@
       <c r="P290">
         <v>0</v>
       </c>
-      <c r="Q290" s="8">
-        <f t="shared" si="4"/>
-        <v>2476</v>
-      </c>
+      <c r="Q290" s="5"/>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
@@ -16844,10 +16004,7 @@
       <c r="P291">
         <v>0</v>
       </c>
-      <c r="Q291" s="8">
-        <f t="shared" si="4"/>
-        <v>832</v>
-      </c>
+      <c r="Q291" s="5"/>
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
@@ -16898,10 +16055,7 @@
       <c r="P292">
         <v>0</v>
       </c>
-      <c r="Q292" s="8">
-        <f t="shared" si="4"/>
-        <v>816</v>
-      </c>
+      <c r="Q292" s="5"/>
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
@@ -16952,10 +16106,7 @@
       <c r="P293">
         <v>0</v>
       </c>
-      <c r="Q293" s="8">
-        <f t="shared" si="4"/>
-        <v>828</v>
-      </c>
+      <c r="Q293" s="5"/>
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
@@ -17006,10 +16157,7 @@
       <c r="P294">
         <v>0</v>
       </c>
-      <c r="Q294" s="8">
-        <f t="shared" si="4"/>
-        <v>816</v>
-      </c>
+      <c r="Q294" s="5"/>
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
@@ -17060,10 +16208,7 @@
       <c r="P295">
         <v>0</v>
       </c>
-      <c r="Q295" s="8">
-        <f t="shared" si="4"/>
-        <v>816</v>
-      </c>
+      <c r="Q295" s="5"/>
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
@@ -17114,10 +16259,7 @@
       <c r="P296" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q296" s="8">
-        <f t="shared" si="4"/>
-        <v>1392</v>
-      </c>
+      <c r="Q296" s="5"/>
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
@@ -17168,10 +16310,7 @@
       <c r="P297" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q297" s="8">
-        <f t="shared" si="4"/>
-        <v>720</v>
-      </c>
+      <c r="Q297" s="5"/>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
@@ -17222,10 +16361,7 @@
       <c r="P298" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q298" s="8">
-        <f t="shared" si="4"/>
-        <v>672</v>
-      </c>
+      <c r="Q298" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -17244,9 +16380,12 @@
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
   </mergeCells>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>40</formula>
+  <conditionalFormatting sqref="W1:W1048576">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="&quot;Nuevo&quot;">
+      <formula>NOT(ISERROR(SEARCH("""Nuevo""",W1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Nuevo!">
+      <formula>NOT(ISERROR(SEARCH("Nuevo!",W1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17255,6 +16394,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E749FFFE0989D649B56E82565BC24D6D" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1941bbcce4e679288056da6a6786e297">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5c753c04-4c07-4dfb-b25e-c56059ca961d" xmlns:ns3="af8514bc-be7a-429c-a492-f298258d52a7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="17841404dd05f148ab640c9eb1a4253a" ns2:_="" ns3:_="">
     <xsd:import namespace="5c753c04-4c07-4dfb-b25e-c56059ca961d"/>
@@ -17419,15 +16567,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -17435,6 +16574,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41708F13-A982-4911-B4E6-AD7676D3659D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -17449,14 +16596,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2274D87C-672A-4E8A-B957-39CF092F5081}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
